--- a/attendance-files/SDM/SDM-M (EFGH) Attendance Sheet.xlsx
+++ b/attendance-files/SDM/SDM-M (EFGH) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="162">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -81,6 +81,9 @@
     <t>A</t>
   </si>
   <si>
+    <t>P</t>
+  </si>
+  <si>
     <t>2024PGP536</t>
   </si>
   <si>
@@ -103,9 +106,6 @@
   </si>
   <si>
     <t>Meet Jagdish Ramoliya</t>
-  </si>
-  <si>
-    <t>P</t>
   </si>
   <si>
     <t>2024PGP245</t>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="F7" s="29">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>20</v>
@@ -1629,11 +1629,19 @@
       <c r="H7" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="32"/>
+      <c r="I7" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
+      <c r="K7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="N7" s="32"/>
       <c r="O7" s="32"/>
       <c r="P7" s="32"/>
@@ -1655,10 +1663,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>9</v>
@@ -1669,7 +1677,7 @@
       </c>
       <c r="F8" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G8" s="38" t="s">
         <v>20</v>
@@ -1677,11 +1685,19 @@
       <c r="H8" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="40"/>
+      <c r="I8" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="K8" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N8" s="40"/>
       <c r="O8" s="40"/>
       <c r="P8" s="40"/>
@@ -1703,10 +1719,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>9</v>
@@ -1717,7 +1733,7 @@
       </c>
       <c r="F9" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G9" s="38" t="s">
         <v>20</v>
@@ -1725,11 +1741,19 @@
       <c r="H9" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="40"/>
+      <c r="I9" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="K9" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N9" s="40"/>
       <c r="O9" s="40"/>
       <c r="P9" s="40"/>
@@ -1751,21 +1775,21 @@
         <v>4</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G10" s="38" t="s">
         <v>20</v>
@@ -1773,11 +1797,19 @@
       <c r="H10" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="40"/>
+      <c r="I10" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="K10" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N10" s="40"/>
       <c r="O10" s="40"/>
       <c r="P10" s="40"/>
@@ -1799,10 +1831,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>9</v>
@@ -1813,19 +1845,27 @@
       </c>
       <c r="F11" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="K11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N11" s="40"/>
       <c r="O11" s="40"/>
       <c r="P11" s="40"/>
@@ -1861,7 +1901,7 @@
       </c>
       <c r="F12" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G12" s="38" t="s">
         <v>20</v>
@@ -1869,11 +1909,19 @@
       <c r="H12" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="40"/>
+      <c r="I12" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="K12" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N12" s="40"/>
       <c r="O12" s="40"/>
       <c r="P12" s="40"/>
@@ -1905,23 +1953,31 @@
       </c>
       <c r="E13" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13" s="37">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G13" s="38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H13" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
+      <c r="K13" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N13" s="40"/>
       <c r="O13" s="40"/>
       <c r="P13" s="40"/>
@@ -1953,11 +2009,11 @@
       </c>
       <c r="E14" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G14" s="38" t="s">
         <v>20</v>
@@ -1965,11 +2021,19 @@
       <c r="H14" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="40"/>
+      <c r="I14" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
+      <c r="K14" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N14" s="40"/>
       <c r="O14" s="40"/>
       <c r="P14" s="40"/>
@@ -2001,11 +2065,11 @@
       </c>
       <c r="E15" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G15" s="38" t="s">
         <v>20</v>
@@ -2013,11 +2077,19 @@
       <c r="H15" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="40"/>
+      <c r="I15" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
+      <c r="K15" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N15" s="40"/>
       <c r="O15" s="40"/>
       <c r="P15" s="40"/>
@@ -2049,23 +2121,31 @@
       </c>
       <c r="E16" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="37">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H16" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="40"/>
+      <c r="I16" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
+      <c r="K16" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N16" s="40"/>
       <c r="O16" s="40"/>
       <c r="P16" s="40"/>
@@ -2097,11 +2177,11 @@
       </c>
       <c r="E17" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G17" s="38" t="s">
         <v>20</v>
@@ -2109,11 +2189,19 @@
       <c r="H17" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="40"/>
+      <c r="I17" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
+      <c r="K17" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N17" s="40"/>
       <c r="O17" s="40"/>
       <c r="P17" s="40"/>
@@ -2149,7 +2237,7 @@
       </c>
       <c r="F18" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G18" s="38" t="s">
         <v>20</v>
@@ -2157,11 +2245,19 @@
       <c r="H18" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="40"/>
+      <c r="I18" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
+      <c r="K18" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N18" s="40"/>
       <c r="O18" s="40"/>
       <c r="P18" s="40"/>
@@ -2193,23 +2289,31 @@
       </c>
       <c r="E19" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G19" s="38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H19" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
+      <c r="K19" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N19" s="40"/>
       <c r="O19" s="40"/>
       <c r="P19" s="40"/>
@@ -2245,19 +2349,27 @@
       </c>
       <c r="F20" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G20" s="38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H20" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
+      <c r="K20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N20" s="40"/>
       <c r="O20" s="40"/>
       <c r="P20" s="40"/>
@@ -2289,23 +2401,31 @@
       </c>
       <c r="E21" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="37">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H21" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I21" s="40"/>
+      <c r="I21" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
+      <c r="K21" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N21" s="40"/>
       <c r="O21" s="40"/>
       <c r="P21" s="40"/>
@@ -2337,23 +2457,31 @@
       </c>
       <c r="E22" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H22" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="I22" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
+      <c r="K22" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N22" s="40"/>
       <c r="O22" s="40"/>
       <c r="P22" s="40"/>
@@ -2385,23 +2513,31 @@
       </c>
       <c r="E23" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F23" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G23" s="38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H23" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="I23" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="I23" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
+      <c r="K23" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N23" s="40"/>
       <c r="O23" s="40"/>
       <c r="P23" s="40"/>
@@ -2437,19 +2573,27 @@
       </c>
       <c r="F24" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H24" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="I24" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
+      <c r="K24" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N24" s="40"/>
       <c r="O24" s="40"/>
       <c r="P24" s="40"/>
@@ -2481,23 +2625,31 @@
       </c>
       <c r="E25" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G25" s="38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H25" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="I25" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="I25" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
+      <c r="K25" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N25" s="40"/>
       <c r="O25" s="40"/>
       <c r="P25" s="40"/>
@@ -2533,7 +2685,7 @@
       </c>
       <c r="F26" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G26" s="38" t="s">
         <v>20</v>
@@ -2541,11 +2693,19 @@
       <c r="H26" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="40"/>
+      <c r="I26" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
+      <c r="K26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N26" s="40"/>
       <c r="O26" s="40"/>
       <c r="P26" s="40"/>
@@ -2577,23 +2737,31 @@
       </c>
       <c r="E27" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27" s="37">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G27" s="38" t="s">
         <v>20</v>
       </c>
       <c r="H27" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="I27" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
+      <c r="K27" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N27" s="40"/>
       <c r="O27" s="40"/>
       <c r="P27" s="40"/>
@@ -2625,11 +2793,11 @@
       </c>
       <c r="E28" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G28" s="38" t="s">
         <v>20</v>
@@ -2637,11 +2805,19 @@
       <c r="H28" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="40"/>
+      <c r="I28" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
+      <c r="K28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N28" s="40"/>
       <c r="O28" s="40"/>
       <c r="P28" s="40"/>
@@ -2673,11 +2849,11 @@
       </c>
       <c r="E29" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G29" s="38" t="s">
         <v>20</v>
@@ -2685,11 +2861,19 @@
       <c r="H29" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="40"/>
+      <c r="I29" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
+      <c r="K29" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N29" s="40"/>
       <c r="O29" s="40"/>
       <c r="P29" s="40"/>
@@ -2725,19 +2909,27 @@
       </c>
       <c r="F30" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G30" s="38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H30" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="I30" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="I30" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
+      <c r="K30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N30" s="40"/>
       <c r="O30" s="40"/>
       <c r="P30" s="40"/>
@@ -2769,23 +2961,31 @@
       </c>
       <c r="E31" s="28">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F31" s="37">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F31" s="37">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="G31" s="38" t="s">
         <v>20</v>
       </c>
       <c r="H31" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I31" s="40"/>
+      <c r="I31" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
+      <c r="K31" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N31" s="40"/>
       <c r="O31" s="40"/>
       <c r="P31" s="40"/>
@@ -2821,7 +3021,7 @@
       </c>
       <c r="F32" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G32" s="38" t="s">
         <v>20</v>
@@ -2829,11 +3029,19 @@
       <c r="H32" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I32" s="40"/>
+      <c r="I32" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
+      <c r="K32" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N32" s="40"/>
       <c r="O32" s="40"/>
       <c r="P32" s="40"/>
@@ -2865,11 +3073,11 @@
       </c>
       <c r="E33" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F33" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="38" t="s">
         <v>20</v>
@@ -2877,11 +3085,19 @@
       <c r="H33" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I33" s="40"/>
+      <c r="I33" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
+      <c r="K33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N33" s="40"/>
       <c r="O33" s="40"/>
       <c r="P33" s="40"/>
@@ -2917,7 +3133,7 @@
       </c>
       <c r="F34" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G34" s="38" t="s">
         <v>20</v>
@@ -2925,11 +3141,19 @@
       <c r="H34" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I34" s="40"/>
+      <c r="I34" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="40"/>
+      <c r="K34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N34" s="40"/>
       <c r="O34" s="40"/>
       <c r="P34" s="40"/>
@@ -2961,23 +3185,31 @@
       </c>
       <c r="E35" s="28">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F35" s="37">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F35" s="37">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="G35" s="38" t="s">
         <v>20</v>
       </c>
       <c r="H35" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="40"/>
+      <c r="I35" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
+      <c r="K35" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N35" s="40"/>
       <c r="O35" s="40"/>
       <c r="P35" s="40"/>
@@ -3013,7 +3245,7 @@
       </c>
       <c r="F36" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G36" s="38" t="s">
         <v>20</v>
@@ -3021,11 +3253,19 @@
       <c r="H36" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I36" s="40"/>
+      <c r="I36" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J36" s="40"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="40"/>
+      <c r="K36" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M36" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N36" s="40"/>
       <c r="O36" s="40"/>
       <c r="P36" s="40"/>
@@ -3061,7 +3301,7 @@
       </c>
       <c r="F37" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G37" s="38" t="s">
         <v>20</v>
@@ -3069,11 +3309,19 @@
       <c r="H37" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I37" s="40"/>
+      <c r="I37" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
+      <c r="K37" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N37" s="40"/>
       <c r="O37" s="40"/>
       <c r="P37" s="40"/>
@@ -3105,11 +3353,11 @@
       </c>
       <c r="E38" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F38" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G38" s="38" t="s">
         <v>20</v>
@@ -3117,11 +3365,19 @@
       <c r="H38" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I38" s="40"/>
+      <c r="I38" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
+      <c r="K38" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N38" s="40"/>
       <c r="O38" s="40"/>
       <c r="P38" s="40"/>
@@ -3153,23 +3409,31 @@
       </c>
       <c r="E39" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" s="37">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G39" s="38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H39" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I39" s="40"/>
+      <c r="I39" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
+      <c r="K39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M39" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N39" s="40"/>
       <c r="O39" s="40"/>
       <c r="P39" s="40"/>
@@ -3201,11 +3465,11 @@
       </c>
       <c r="E40" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F40" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G40" s="38" t="s">
         <v>20</v>
@@ -3213,11 +3477,19 @@
       <c r="H40" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I40" s="40"/>
+      <c r="I40" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
+      <c r="K40" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L40" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M40" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N40" s="40"/>
       <c r="O40" s="40"/>
       <c r="P40" s="40"/>
@@ -3249,23 +3521,31 @@
       </c>
       <c r="E41" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G41" s="38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H41" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="I41" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="I41" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
+      <c r="K41" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L41" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M41" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N41" s="40"/>
       <c r="O41" s="40"/>
       <c r="P41" s="40"/>
@@ -3297,23 +3577,31 @@
       </c>
       <c r="E42" s="28">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F42" s="37">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F42" s="37">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="G42" s="38" t="s">
         <v>20</v>
       </c>
       <c r="H42" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="40"/>
+      <c r="I42" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="40"/>
+      <c r="K42" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M42" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N42" s="40"/>
       <c r="O42" s="40"/>
       <c r="P42" s="40"/>
@@ -3349,7 +3637,7 @@
       </c>
       <c r="F43" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G43" s="38" t="s">
         <v>20</v>
@@ -3357,11 +3645,19 @@
       <c r="H43" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="40"/>
+      <c r="I43" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J43" s="40"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="40"/>
-      <c r="M43" s="40"/>
+      <c r="K43" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L43" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M43" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N43" s="40"/>
       <c r="O43" s="40"/>
       <c r="P43" s="40"/>
@@ -3393,11 +3689,11 @@
       </c>
       <c r="E44" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F44" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G44" s="38" t="s">
         <v>20</v>
@@ -3405,11 +3701,19 @@
       <c r="H44" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I44" s="40"/>
+      <c r="I44" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J44" s="40"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="40"/>
+      <c r="K44" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M44" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N44" s="40"/>
       <c r="O44" s="40"/>
       <c r="P44" s="40"/>
@@ -3445,7 +3749,7 @@
       </c>
       <c r="F45" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G45" s="38" t="s">
         <v>20</v>
@@ -3453,11 +3757,19 @@
       <c r="H45" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I45" s="40"/>
+      <c r="I45" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J45" s="40"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="40"/>
+      <c r="K45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M45" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N45" s="40"/>
       <c r="O45" s="40"/>
       <c r="P45" s="40"/>
@@ -3493,7 +3805,7 @@
       </c>
       <c r="F46" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G46" s="38" t="s">
         <v>20</v>
@@ -3501,11 +3813,19 @@
       <c r="H46" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I46" s="40"/>
+      <c r="I46" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J46" s="40"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="40"/>
+      <c r="K46" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L46" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M46" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N46" s="40"/>
       <c r="O46" s="40"/>
       <c r="P46" s="40"/>
@@ -3537,23 +3857,31 @@
       </c>
       <c r="E47" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G47" s="38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H47" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="I47" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="I47" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J47" s="40"/>
-      <c r="K47" s="40"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="40"/>
+      <c r="K47" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M47" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N47" s="40"/>
       <c r="O47" s="40"/>
       <c r="P47" s="40"/>
@@ -3585,11 +3913,11 @@
       </c>
       <c r="E48" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G48" s="38" t="s">
         <v>20</v>
@@ -3597,11 +3925,19 @@
       <c r="H48" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I48" s="40"/>
+      <c r="I48" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J48" s="40"/>
-      <c r="K48" s="40"/>
-      <c r="L48" s="40"/>
-      <c r="M48" s="40"/>
+      <c r="K48" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M48" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N48" s="40"/>
       <c r="O48" s="40"/>
       <c r="P48" s="40"/>
@@ -3637,7 +3973,7 @@
       </c>
       <c r="F49" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G49" s="38" t="s">
         <v>20</v>
@@ -3645,11 +3981,19 @@
       <c r="H49" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I49" s="40"/>
+      <c r="I49" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J49" s="40"/>
-      <c r="K49" s="40"/>
-      <c r="L49" s="40"/>
-      <c r="M49" s="40"/>
+      <c r="K49" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L49" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M49" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N49" s="40"/>
       <c r="O49" s="40"/>
       <c r="P49" s="40"/>
@@ -3685,7 +4029,7 @@
       </c>
       <c r="F50" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G50" s="38" t="s">
         <v>20</v>
@@ -3693,11 +4037,19 @@
       <c r="H50" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I50" s="40"/>
+      <c r="I50" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J50" s="40"/>
-      <c r="K50" s="40"/>
-      <c r="L50" s="40"/>
-      <c r="M50" s="40"/>
+      <c r="K50" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L50" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M50" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N50" s="40"/>
       <c r="O50" s="40"/>
       <c r="P50" s="40"/>
@@ -3733,19 +4085,27 @@
       </c>
       <c r="F51" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G51" s="38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H51" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="I51" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="I51" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J51" s="40"/>
-      <c r="K51" s="40"/>
-      <c r="L51" s="40"/>
-      <c r="M51" s="40"/>
+      <c r="K51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M51" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N51" s="40"/>
       <c r="O51" s="40"/>
       <c r="P51" s="40"/>
@@ -3777,11 +4137,11 @@
       </c>
       <c r="E52" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F52" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G52" s="38" t="s">
         <v>20</v>
@@ -3789,11 +4149,19 @@
       <c r="H52" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I52" s="40"/>
+      <c r="I52" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J52" s="40"/>
-      <c r="K52" s="40"/>
-      <c r="L52" s="40"/>
-      <c r="M52" s="40"/>
+      <c r="K52" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L52" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M52" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N52" s="40"/>
       <c r="O52" s="40"/>
       <c r="P52" s="40"/>
@@ -3829,19 +4197,27 @@
       </c>
       <c r="F53" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G53" s="38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H53" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="I53" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="I53" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J53" s="40"/>
-      <c r="K53" s="40"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="40"/>
+      <c r="K53" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L53" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M53" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N53" s="40"/>
       <c r="O53" s="40"/>
       <c r="P53" s="40"/>
@@ -3877,7 +4253,7 @@
       </c>
       <c r="F54" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G54" s="38" t="s">
         <v>20</v>
@@ -3885,11 +4261,19 @@
       <c r="H54" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I54" s="40"/>
+      <c r="I54" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J54" s="40"/>
-      <c r="K54" s="40"/>
-      <c r="L54" s="40"/>
-      <c r="M54" s="40"/>
+      <c r="K54" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L54" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M54" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N54" s="40"/>
       <c r="O54" s="40"/>
       <c r="P54" s="40"/>
@@ -3925,19 +4309,27 @@
       </c>
       <c r="F55" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G55" s="38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H55" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="I55" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="I55" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J55" s="40"/>
-      <c r="K55" s="40"/>
-      <c r="L55" s="40"/>
-      <c r="M55" s="40"/>
+      <c r="K55" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L55" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M55" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N55" s="40"/>
       <c r="O55" s="40"/>
       <c r="P55" s="40"/>
@@ -3973,7 +4365,7 @@
       </c>
       <c r="F56" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G56" s="38" t="s">
         <v>20</v>
@@ -3981,11 +4373,19 @@
       <c r="H56" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I56" s="40"/>
+      <c r="I56" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J56" s="40"/>
-      <c r="K56" s="40"/>
-      <c r="L56" s="40"/>
-      <c r="M56" s="40"/>
+      <c r="K56" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L56" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M56" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N56" s="40"/>
       <c r="O56" s="40"/>
       <c r="P56" s="40"/>
@@ -4017,23 +4417,31 @@
       </c>
       <c r="E57" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G57" s="38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H57" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="I57" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="I57" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J57" s="40"/>
-      <c r="K57" s="40"/>
-      <c r="L57" s="40"/>
-      <c r="M57" s="40"/>
+      <c r="K57" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L57" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M57" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N57" s="40"/>
       <c r="O57" s="40"/>
       <c r="P57" s="40"/>
@@ -4065,23 +4473,31 @@
       </c>
       <c r="E58" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F58" s="37">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G58" s="38" t="s">
         <v>20</v>
       </c>
       <c r="H58" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="I58" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="I58" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="J58" s="40"/>
-      <c r="K58" s="40"/>
-      <c r="L58" s="40"/>
-      <c r="M58" s="40"/>
+      <c r="K58" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L58" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M58" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N58" s="40"/>
       <c r="O58" s="40"/>
       <c r="P58" s="40"/>
@@ -4113,23 +4529,31 @@
       </c>
       <c r="E59" s="28">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F59" s="37">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F59" s="37">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="G59" s="38" t="s">
         <v>20</v>
       </c>
       <c r="H59" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I59" s="40"/>
+      <c r="I59" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J59" s="40"/>
-      <c r="K59" s="40"/>
-      <c r="L59" s="40"/>
-      <c r="M59" s="40"/>
+      <c r="K59" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L59" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M59" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N59" s="40"/>
       <c r="O59" s="40"/>
       <c r="P59" s="40"/>
@@ -4161,11 +4585,11 @@
       </c>
       <c r="E60" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F60" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G60" s="38" t="s">
         <v>20</v>
@@ -4173,11 +4597,19 @@
       <c r="H60" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I60" s="40"/>
+      <c r="I60" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J60" s="40"/>
-      <c r="K60" s="40"/>
-      <c r="L60" s="40"/>
-      <c r="M60" s="40"/>
+      <c r="K60" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L60" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M60" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N60" s="40"/>
       <c r="O60" s="40"/>
       <c r="P60" s="40"/>
@@ -4209,7 +4641,7 @@
       </c>
       <c r="E61" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F61" s="37">
         <f t="shared" si="2"/>
@@ -4221,11 +4653,19 @@
       <c r="H61" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I61" s="40"/>
+      <c r="I61" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="J61" s="40"/>
-      <c r="K61" s="40"/>
-      <c r="L61" s="40"/>
-      <c r="M61" s="40"/>
+      <c r="K61" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L61" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M61" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N61" s="40"/>
       <c r="O61" s="40"/>
       <c r="P61" s="40"/>
@@ -4257,11 +4697,11 @@
       </c>
       <c r="E62" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F62" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G62" s="38" t="s">
         <v>20</v>
@@ -4269,11 +4709,19 @@
       <c r="H62" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I62" s="40"/>
+      <c r="I62" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J62" s="40"/>
-      <c r="K62" s="40"/>
-      <c r="L62" s="40"/>
-      <c r="M62" s="40"/>
+      <c r="K62" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L62" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M62" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N62" s="40"/>
       <c r="O62" s="40"/>
       <c r="P62" s="40"/>
@@ -4309,7 +4757,7 @@
       </c>
       <c r="F63" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G63" s="38" t="s">
         <v>20</v>
@@ -4317,11 +4765,19 @@
       <c r="H63" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I63" s="40"/>
+      <c r="I63" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J63" s="40"/>
-      <c r="K63" s="40"/>
-      <c r="L63" s="40"/>
-      <c r="M63" s="40"/>
+      <c r="K63" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L63" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M63" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N63" s="40"/>
       <c r="O63" s="40"/>
       <c r="P63" s="40"/>
@@ -4357,19 +4813,27 @@
       </c>
       <c r="F64" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G64" s="38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H64" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="I64" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="I64" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J64" s="40"/>
-      <c r="K64" s="40"/>
-      <c r="L64" s="40"/>
-      <c r="M64" s="40"/>
+      <c r="K64" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L64" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M64" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N64" s="40"/>
       <c r="O64" s="40"/>
       <c r="P64" s="40"/>
@@ -4401,23 +4865,31 @@
       </c>
       <c r="E65" s="28">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F65" s="37">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F65" s="37">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="G65" s="38" t="s">
         <v>20</v>
       </c>
       <c r="H65" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I65" s="40"/>
+      <c r="I65" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J65" s="40"/>
-      <c r="K65" s="40"/>
-      <c r="L65" s="40"/>
-      <c r="M65" s="40"/>
+      <c r="K65" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L65" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M65" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N65" s="40"/>
       <c r="O65" s="40"/>
       <c r="P65" s="40"/>
@@ -4449,11 +4921,11 @@
       </c>
       <c r="E66" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F66" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G66" s="38" t="s">
         <v>20</v>
@@ -4461,11 +4933,19 @@
       <c r="H66" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I66" s="40"/>
+      <c r="I66" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J66" s="40"/>
-      <c r="K66" s="40"/>
-      <c r="L66" s="40"/>
-      <c r="M66" s="40"/>
+      <c r="K66" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L66" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M66" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N66" s="40"/>
       <c r="O66" s="40"/>
       <c r="P66" s="40"/>
@@ -4497,11 +4977,11 @@
       </c>
       <c r="E67" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F67" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G67" s="38" t="s">
         <v>20</v>
@@ -4509,11 +4989,19 @@
       <c r="H67" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I67" s="40"/>
+      <c r="I67" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J67" s="40"/>
-      <c r="K67" s="40"/>
-      <c r="L67" s="40"/>
-      <c r="M67" s="40"/>
+      <c r="K67" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L67" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M67" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N67" s="40"/>
       <c r="O67" s="40"/>
       <c r="P67" s="40"/>
@@ -4549,7 +5037,7 @@
       </c>
       <c r="F68" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G68" s="38" t="s">
         <v>20</v>
@@ -4557,11 +5045,19 @@
       <c r="H68" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I68" s="40"/>
+      <c r="I68" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J68" s="40"/>
-      <c r="K68" s="40"/>
-      <c r="L68" s="40"/>
-      <c r="M68" s="40"/>
+      <c r="K68" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L68" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M68" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N68" s="40"/>
       <c r="O68" s="40"/>
       <c r="P68" s="40"/>
@@ -4593,11 +5089,11 @@
       </c>
       <c r="E69" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F69" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G69" s="38" t="s">
         <v>20</v>
@@ -4605,11 +5101,19 @@
       <c r="H69" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I69" s="40"/>
+      <c r="I69" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J69" s="40"/>
-      <c r="K69" s="40"/>
-      <c r="L69" s="40"/>
-      <c r="M69" s="40"/>
+      <c r="K69" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L69" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M69" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N69" s="40"/>
       <c r="O69" s="40"/>
       <c r="P69" s="40"/>
@@ -4645,19 +5149,27 @@
       </c>
       <c r="F70" s="37">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G70" s="38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H70" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I70" s="40"/>
+      <c r="I70" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J70" s="40"/>
-      <c r="K70" s="40"/>
-      <c r="L70" s="40"/>
-      <c r="M70" s="40"/>
+      <c r="K70" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L70" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M70" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N70" s="40"/>
       <c r="O70" s="40"/>
       <c r="P70" s="40"/>
@@ -4693,7 +5205,7 @@
       </c>
       <c r="F71" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G71" s="38" t="s">
         <v>20</v>
@@ -4701,11 +5213,19 @@
       <c r="H71" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I71" s="40"/>
+      <c r="I71" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J71" s="40"/>
-      <c r="K71" s="40"/>
-      <c r="L71" s="40"/>
-      <c r="M71" s="40"/>
+      <c r="K71" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L71" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M71" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N71" s="40"/>
       <c r="O71" s="40"/>
       <c r="P71" s="40"/>
@@ -4741,7 +5261,7 @@
       </c>
       <c r="F72" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G72" s="38" t="s">
         <v>20</v>
@@ -4749,11 +5269,19 @@
       <c r="H72" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I72" s="40"/>
+      <c r="I72" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J72" s="40"/>
-      <c r="K72" s="40"/>
-      <c r="L72" s="40"/>
-      <c r="M72" s="40"/>
+      <c r="K72" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L72" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M72" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N72" s="40"/>
       <c r="O72" s="40"/>
       <c r="P72" s="40"/>
@@ -4789,7 +5317,7 @@
       </c>
       <c r="F73" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G73" s="38" t="s">
         <v>20</v>
@@ -4797,11 +5325,19 @@
       <c r="H73" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I73" s="40"/>
+      <c r="I73" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J73" s="40"/>
-      <c r="K73" s="40"/>
-      <c r="L73" s="40"/>
-      <c r="M73" s="40"/>
+      <c r="K73" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L73" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M73" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N73" s="40"/>
       <c r="O73" s="40"/>
       <c r="P73" s="40"/>
@@ -4833,23 +5369,31 @@
       </c>
       <c r="E74" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F74" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G74" s="38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H74" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="I74" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="I74" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="J74" s="40"/>
-      <c r="K74" s="40"/>
-      <c r="L74" s="40"/>
-      <c r="M74" s="40"/>
+      <c r="K74" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L74" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M74" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="N74" s="40"/>
       <c r="O74" s="40"/>
       <c r="P74" s="40"/>
@@ -4885,19 +5429,27 @@
       </c>
       <c r="F75" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G75" s="38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H75" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="I75" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="I75" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J75" s="40"/>
-      <c r="K75" s="40"/>
-      <c r="L75" s="40"/>
-      <c r="M75" s="40"/>
+      <c r="K75" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L75" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M75" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N75" s="40"/>
       <c r="O75" s="40"/>
       <c r="P75" s="40"/>
@@ -4933,7 +5485,7 @@
       </c>
       <c r="F76" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G76" s="38" t="s">
         <v>20</v>
@@ -4941,11 +5493,19 @@
       <c r="H76" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I76" s="40"/>
+      <c r="I76" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J76" s="40"/>
-      <c r="K76" s="40"/>
-      <c r="L76" s="40"/>
-      <c r="M76" s="40"/>
+      <c r="K76" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L76" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M76" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N76" s="40"/>
       <c r="O76" s="40"/>
       <c r="P76" s="40"/>
@@ -4981,7 +5541,7 @@
       </c>
       <c r="F77" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G77" s="38" t="s">
         <v>20</v>
@@ -4989,11 +5549,19 @@
       <c r="H77" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I77" s="40"/>
+      <c r="I77" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J77" s="40"/>
-      <c r="K77" s="40"/>
-      <c r="L77" s="40"/>
-      <c r="M77" s="40"/>
+      <c r="K77" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L77" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M77" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="N77" s="40"/>
       <c r="O77" s="40"/>
       <c r="P77" s="40"/>

--- a/attendance-files/SDM/SDM-M (EFGH) Attendance Sheet.xlsx
+++ b/attendance-files/SDM/SDM-M (EFGH) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="162">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1617,11 +1617,11 @@
       </c>
       <c r="E7" s="28">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F7" s="29">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>20</v>
@@ -1642,12 +1642,24 @@
       <c r="M7" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
+      <c r="N7" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="S7" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="T7" s="32"/>
       <c r="U7" s="32"/>
       <c r="V7" s="32"/>
@@ -1673,11 +1685,11 @@
       </c>
       <c r="E8" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G8" s="38" t="s">
         <v>20</v>
@@ -1698,12 +1710,24 @@
       <c r="M8" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
+      <c r="N8" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="T8" s="40"/>
       <c r="U8" s="40"/>
       <c r="V8" s="40"/>
@@ -1733,7 +1757,7 @@
       </c>
       <c r="F9" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G9" s="38" t="s">
         <v>20</v>
@@ -1754,12 +1778,24 @@
       <c r="M9" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
+      <c r="N9" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R9" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S9" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T9" s="40"/>
       <c r="U9" s="40"/>
       <c r="V9" s="40"/>
@@ -1785,11 +1821,11 @@
       </c>
       <c r="E10" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G10" s="38" t="s">
         <v>20</v>
@@ -1810,12 +1846,24 @@
       <c r="M10" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
+      <c r="N10" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T10" s="40"/>
       <c r="U10" s="40"/>
       <c r="V10" s="40"/>
@@ -1845,7 +1893,7 @@
       </c>
       <c r="F11" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G11" s="38" t="s">
         <v>21</v>
@@ -1866,12 +1914,24 @@
       <c r="M11" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
+      <c r="N11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S11" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T11" s="40"/>
       <c r="U11" s="40"/>
       <c r="V11" s="40"/>
@@ -1901,7 +1961,7 @@
       </c>
       <c r="F12" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G12" s="38" t="s">
         <v>20</v>
@@ -1922,12 +1982,24 @@
       <c r="M12" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
+      <c r="N12" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T12" s="40"/>
       <c r="U12" s="40"/>
       <c r="V12" s="40"/>
@@ -1953,11 +2025,11 @@
       </c>
       <c r="E13" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F13" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G13" s="38" t="s">
         <v>21</v>
@@ -1978,12 +2050,24 @@
       <c r="M13" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
+      <c r="N13" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R13" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S13" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T13" s="40"/>
       <c r="U13" s="40"/>
       <c r="V13" s="40"/>
@@ -2013,7 +2097,7 @@
       </c>
       <c r="F14" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G14" s="38" t="s">
         <v>20</v>
@@ -2034,12 +2118,24 @@
       <c r="M14" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
+      <c r="N14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S14" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T14" s="40"/>
       <c r="U14" s="40"/>
       <c r="V14" s="40"/>
@@ -2069,7 +2165,7 @@
       </c>
       <c r="F15" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G15" s="38" t="s">
         <v>20</v>
@@ -2090,12 +2186,24 @@
       <c r="M15" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
+      <c r="N15" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R15" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S15" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T15" s="40"/>
       <c r="U15" s="40"/>
       <c r="V15" s="40"/>
@@ -2121,11 +2229,11 @@
       </c>
       <c r="E16" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F16" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G16" s="38" t="s">
         <v>21</v>
@@ -2146,12 +2254,24 @@
       <c r="M16" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
+      <c r="N16" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P16" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q16" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R16" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S16" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="T16" s="40"/>
       <c r="U16" s="40"/>
       <c r="V16" s="40"/>
@@ -2181,7 +2301,7 @@
       </c>
       <c r="F17" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G17" s="38" t="s">
         <v>20</v>
@@ -2202,12 +2322,24 @@
       <c r="M17" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
+      <c r="N17" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P17" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S17" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T17" s="40"/>
       <c r="U17" s="40"/>
       <c r="V17" s="40"/>
@@ -2237,7 +2369,7 @@
       </c>
       <c r="F18" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G18" s="38" t="s">
         <v>20</v>
@@ -2258,12 +2390,24 @@
       <c r="M18" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
+      <c r="N18" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T18" s="40"/>
       <c r="U18" s="40"/>
       <c r="V18" s="40"/>
@@ -2289,11 +2433,11 @@
       </c>
       <c r="E19" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F19" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G19" s="38" t="s">
         <v>21</v>
@@ -2314,12 +2458,24 @@
       <c r="M19" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
+      <c r="N19" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q19" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R19" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S19" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T19" s="40"/>
       <c r="U19" s="40"/>
       <c r="V19" s="40"/>
@@ -2345,11 +2501,11 @@
       </c>
       <c r="E20" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G20" s="38" t="s">
         <v>21</v>
@@ -2370,12 +2526,24 @@
       <c r="M20" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
+      <c r="N20" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S20" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T20" s="40"/>
       <c r="U20" s="40"/>
       <c r="V20" s="40"/>
@@ -2401,11 +2569,11 @@
       </c>
       <c r="E21" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F21" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G21" s="38" t="s">
         <v>21</v>
@@ -2426,12 +2594,24 @@
       <c r="M21" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
+      <c r="N21" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P21" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R21" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S21" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T21" s="40"/>
       <c r="U21" s="40"/>
       <c r="V21" s="40"/>
@@ -2457,11 +2637,11 @@
       </c>
       <c r="E22" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G22" s="38" t="s">
         <v>21</v>
@@ -2482,12 +2662,24 @@
       <c r="M22" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
+      <c r="N22" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P22" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q22" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R22" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S22" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="T22" s="40"/>
       <c r="U22" s="40"/>
       <c r="V22" s="40"/>
@@ -2517,7 +2709,7 @@
       </c>
       <c r="F23" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G23" s="38" t="s">
         <v>21</v>
@@ -2538,12 +2730,24 @@
       <c r="M23" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
+      <c r="N23" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P23" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R23" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S23" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T23" s="40"/>
       <c r="U23" s="40"/>
       <c r="V23" s="40"/>
@@ -2569,11 +2773,11 @@
       </c>
       <c r="E24" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F24" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G24" s="38" t="s">
         <v>21</v>
@@ -2594,12 +2798,24 @@
       <c r="M24" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40"/>
+      <c r="N24" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R24" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S24" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="T24" s="40"/>
       <c r="U24" s="40"/>
       <c r="V24" s="40"/>
@@ -2625,11 +2841,11 @@
       </c>
       <c r="E25" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F25" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G25" s="38" t="s">
         <v>21</v>
@@ -2650,12 +2866,24 @@
       <c r="M25" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
+      <c r="N25" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R25" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S25" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="T25" s="40"/>
       <c r="U25" s="40"/>
       <c r="V25" s="40"/>
@@ -2685,7 +2913,7 @@
       </c>
       <c r="F26" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G26" s="38" t="s">
         <v>20</v>
@@ -2706,12 +2934,24 @@
       <c r="M26" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
+      <c r="N26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S26" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T26" s="40"/>
       <c r="U26" s="40"/>
       <c r="V26" s="40"/>
@@ -2737,11 +2977,11 @@
       </c>
       <c r="E27" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F27" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G27" s="38" t="s">
         <v>20</v>
@@ -2762,12 +3002,24 @@
       <c r="M27" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
+      <c r="N27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S27" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T27" s="40"/>
       <c r="U27" s="40"/>
       <c r="V27" s="40"/>
@@ -2797,7 +3049,7 @@
       </c>
       <c r="F28" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G28" s="38" t="s">
         <v>20</v>
@@ -2818,12 +3070,24 @@
       <c r="M28" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="40"/>
+      <c r="N28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S28" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T28" s="40"/>
       <c r="U28" s="40"/>
       <c r="V28" s="40"/>
@@ -2853,7 +3117,7 @@
       </c>
       <c r="F29" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G29" s="38" t="s">
         <v>20</v>
@@ -2874,12 +3138,24 @@
       <c r="M29" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="40"/>
+      <c r="N29" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O29" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P29" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q29" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R29" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S29" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T29" s="40"/>
       <c r="U29" s="40"/>
       <c r="V29" s="40"/>
@@ -2909,7 +3185,7 @@
       </c>
       <c r="F30" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G30" s="38" t="s">
         <v>21</v>
@@ -2930,12 +3206,24 @@
       <c r="M30" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="40"/>
+      <c r="N30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S30" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T30" s="40"/>
       <c r="U30" s="40"/>
       <c r="V30" s="40"/>
@@ -2965,7 +3253,7 @@
       </c>
       <c r="F31" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G31" s="38" t="s">
         <v>20</v>
@@ -2986,12 +3274,24 @@
       <c r="M31" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="40"/>
-      <c r="S31" s="40"/>
+      <c r="N31" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O31" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P31" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q31" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R31" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S31" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T31" s="40"/>
       <c r="U31" s="40"/>
       <c r="V31" s="40"/>
@@ -3017,11 +3317,11 @@
       </c>
       <c r="E32" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G32" s="38" t="s">
         <v>20</v>
@@ -3042,12 +3342,24 @@
       <c r="M32" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="40"/>
+      <c r="N32" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O32" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P32" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q32" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R32" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S32" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T32" s="40"/>
       <c r="U32" s="40"/>
       <c r="V32" s="40"/>
@@ -3077,7 +3389,7 @@
       </c>
       <c r="F33" s="37">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G33" s="38" t="s">
         <v>20</v>
@@ -3098,12 +3410,24 @@
       <c r="M33" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N33" s="40"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="40"/>
+      <c r="N33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S33" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T33" s="40"/>
       <c r="U33" s="40"/>
       <c r="V33" s="40"/>
@@ -3129,11 +3453,11 @@
       </c>
       <c r="E34" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G34" s="38" t="s">
         <v>20</v>
@@ -3154,12 +3478,24 @@
       <c r="M34" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="40"/>
+      <c r="N34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P34" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S34" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T34" s="40"/>
       <c r="U34" s="40"/>
       <c r="V34" s="40"/>
@@ -3185,11 +3521,11 @@
       </c>
       <c r="E35" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F35" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G35" s="38" t="s">
         <v>20</v>
@@ -3210,12 +3546,24 @@
       <c r="M35" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N35" s="40"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="40"/>
-      <c r="S35" s="40"/>
+      <c r="N35" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O35" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P35" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q35" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R35" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S35" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T35" s="40"/>
       <c r="U35" s="40"/>
       <c r="V35" s="40"/>
@@ -3241,11 +3589,11 @@
       </c>
       <c r="E36" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F36" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G36" s="38" t="s">
         <v>20</v>
@@ -3266,12 +3614,24 @@
       <c r="M36" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N36" s="40"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="40"/>
-      <c r="S36" s="40"/>
+      <c r="N36" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O36" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P36" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q36" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R36" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S36" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T36" s="40"/>
       <c r="U36" s="40"/>
       <c r="V36" s="40"/>
@@ -3297,11 +3657,11 @@
       </c>
       <c r="E37" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G37" s="38" t="s">
         <v>20</v>
@@ -3322,12 +3682,24 @@
       <c r="M37" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N37" s="40"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="40"/>
-      <c r="S37" s="40"/>
+      <c r="N37" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O37" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P37" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R37" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S37" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T37" s="40"/>
       <c r="U37" s="40"/>
       <c r="V37" s="40"/>
@@ -3353,11 +3725,11 @@
       </c>
       <c r="E38" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F38" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G38" s="38" t="s">
         <v>20</v>
@@ -3378,12 +3750,24 @@
       <c r="M38" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N38" s="40"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="40"/>
-      <c r="S38" s="40"/>
+      <c r="N38" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O38" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P38" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q38" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R38" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S38" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="T38" s="40"/>
       <c r="U38" s="40"/>
       <c r="V38" s="40"/>
@@ -3409,11 +3793,11 @@
       </c>
       <c r="E39" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F39" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G39" s="38" t="s">
         <v>21</v>
@@ -3434,12 +3818,24 @@
       <c r="M39" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="40"/>
-      <c r="S39" s="40"/>
+      <c r="N39" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S39" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="T39" s="40"/>
       <c r="U39" s="40"/>
       <c r="V39" s="40"/>
@@ -3469,7 +3865,7 @@
       </c>
       <c r="F40" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G40" s="38" t="s">
         <v>20</v>
@@ -3490,12 +3886,24 @@
       <c r="M40" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="40"/>
-      <c r="S40" s="40"/>
+      <c r="N40" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O40" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P40" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q40" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R40" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S40" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T40" s="40"/>
       <c r="U40" s="40"/>
       <c r="V40" s="40"/>
@@ -3521,11 +3929,11 @@
       </c>
       <c r="E41" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F41" s="37">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G41" s="38" t="s">
         <v>21</v>
@@ -3546,12 +3954,24 @@
       <c r="M41" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="40"/>
-      <c r="S41" s="40"/>
+      <c r="N41" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O41" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P41" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q41" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R41" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S41" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T41" s="40"/>
       <c r="U41" s="40"/>
       <c r="V41" s="40"/>
@@ -3581,7 +4001,7 @@
       </c>
       <c r="F42" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G42" s="38" t="s">
         <v>20</v>
@@ -3602,12 +4022,24 @@
       <c r="M42" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N42" s="40"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="40"/>
-      <c r="S42" s="40"/>
+      <c r="N42" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O42" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P42" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q42" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R42" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S42" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T42" s="40"/>
       <c r="U42" s="40"/>
       <c r="V42" s="40"/>
@@ -3633,11 +4065,11 @@
       </c>
       <c r="E43" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F43" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G43" s="38" t="s">
         <v>20</v>
@@ -3658,12 +4090,24 @@
       <c r="M43" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N43" s="40"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="40"/>
-      <c r="S43" s="40"/>
+      <c r="N43" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O43" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P43" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q43" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R43" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S43" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T43" s="40"/>
       <c r="U43" s="40"/>
       <c r="V43" s="40"/>
@@ -3689,11 +4133,11 @@
       </c>
       <c r="E44" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F44" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G44" s="38" t="s">
         <v>20</v>
@@ -3714,12 +4158,24 @@
       <c r="M44" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N44" s="40"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="40"/>
-      <c r="S44" s="40"/>
+      <c r="N44" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O44" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P44" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q44" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R44" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S44" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T44" s="40"/>
       <c r="U44" s="40"/>
       <c r="V44" s="40"/>
@@ -3749,7 +4205,7 @@
       </c>
       <c r="F45" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G45" s="38" t="s">
         <v>20</v>
@@ -3770,12 +4226,24 @@
       <c r="M45" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N45" s="40"/>
-      <c r="O45" s="40"/>
-      <c r="P45" s="40"/>
-      <c r="Q45" s="40"/>
-      <c r="R45" s="40"/>
-      <c r="S45" s="40"/>
+      <c r="N45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S45" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T45" s="40"/>
       <c r="U45" s="40"/>
       <c r="V45" s="40"/>
@@ -3801,11 +4269,11 @@
       </c>
       <c r="E46" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F46" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G46" s="38" t="s">
         <v>20</v>
@@ -3826,12 +4294,24 @@
       <c r="M46" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N46" s="40"/>
-      <c r="O46" s="40"/>
-      <c r="P46" s="40"/>
-      <c r="Q46" s="40"/>
-      <c r="R46" s="40"/>
-      <c r="S46" s="40"/>
+      <c r="N46" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O46" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P46" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q46" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R46" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S46" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="T46" s="40"/>
       <c r="U46" s="40"/>
       <c r="V46" s="40"/>
@@ -3857,11 +4337,11 @@
       </c>
       <c r="E47" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F47" s="37">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G47" s="38" t="s">
         <v>21</v>
@@ -3882,12 +4362,24 @@
       <c r="M47" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N47" s="40"/>
-      <c r="O47" s="40"/>
-      <c r="P47" s="40"/>
-      <c r="Q47" s="40"/>
-      <c r="R47" s="40"/>
-      <c r="S47" s="40"/>
+      <c r="N47" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O47" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P47" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q47" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R47" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S47" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T47" s="40"/>
       <c r="U47" s="40"/>
       <c r="V47" s="40"/>
@@ -3913,11 +4405,11 @@
       </c>
       <c r="E48" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F48" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G48" s="38" t="s">
         <v>20</v>
@@ -3938,12 +4430,24 @@
       <c r="M48" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N48" s="40"/>
-      <c r="O48" s="40"/>
-      <c r="P48" s="40"/>
-      <c r="Q48" s="40"/>
-      <c r="R48" s="40"/>
-      <c r="S48" s="40"/>
+      <c r="N48" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O48" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P48" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q48" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R48" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S48" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="T48" s="40"/>
       <c r="U48" s="40"/>
       <c r="V48" s="40"/>
@@ -3969,11 +4473,11 @@
       </c>
       <c r="E49" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F49" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G49" s="38" t="s">
         <v>20</v>
@@ -3994,12 +4498,24 @@
       <c r="M49" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N49" s="40"/>
-      <c r="O49" s="40"/>
-      <c r="P49" s="40"/>
-      <c r="Q49" s="40"/>
-      <c r="R49" s="40"/>
-      <c r="S49" s="40"/>
+      <c r="N49" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O49" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P49" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q49" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R49" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S49" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T49" s="40"/>
       <c r="U49" s="40"/>
       <c r="V49" s="40"/>
@@ -4029,7 +4545,7 @@
       </c>
       <c r="F50" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G50" s="38" t="s">
         <v>20</v>
@@ -4050,12 +4566,24 @@
       <c r="M50" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N50" s="40"/>
-      <c r="O50" s="40"/>
-      <c r="P50" s="40"/>
-      <c r="Q50" s="40"/>
-      <c r="R50" s="40"/>
-      <c r="S50" s="40"/>
+      <c r="N50" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O50" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P50" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q50" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R50" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S50" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T50" s="40"/>
       <c r="U50" s="40"/>
       <c r="V50" s="40"/>
@@ -4085,7 +4613,7 @@
       </c>
       <c r="F51" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G51" s="38" t="s">
         <v>21</v>
@@ -4106,12 +4634,24 @@
       <c r="M51" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N51" s="40"/>
-      <c r="O51" s="40"/>
-      <c r="P51" s="40"/>
-      <c r="Q51" s="40"/>
-      <c r="R51" s="40"/>
-      <c r="S51" s="40"/>
+      <c r="N51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S51" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T51" s="40"/>
       <c r="U51" s="40"/>
       <c r="V51" s="40"/>
@@ -4141,7 +4681,7 @@
       </c>
       <c r="F52" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G52" s="38" t="s">
         <v>20</v>
@@ -4162,12 +4702,24 @@
       <c r="M52" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N52" s="40"/>
-      <c r="O52" s="40"/>
-      <c r="P52" s="40"/>
-      <c r="Q52" s="40"/>
-      <c r="R52" s="40"/>
-      <c r="S52" s="40"/>
+      <c r="N52" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O52" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P52" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q52" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R52" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S52" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T52" s="40"/>
       <c r="U52" s="40"/>
       <c r="V52" s="40"/>
@@ -4193,11 +4745,11 @@
       </c>
       <c r="E53" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F53" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G53" s="38" t="s">
         <v>21</v>
@@ -4218,12 +4770,24 @@
       <c r="M53" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N53" s="40"/>
-      <c r="O53" s="40"/>
-      <c r="P53" s="40"/>
-      <c r="Q53" s="40"/>
-      <c r="R53" s="40"/>
-      <c r="S53" s="40"/>
+      <c r="N53" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O53" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P53" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q53" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R53" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S53" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="T53" s="40"/>
       <c r="U53" s="40"/>
       <c r="V53" s="40"/>
@@ -4253,7 +4817,7 @@
       </c>
       <c r="F54" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G54" s="38" t="s">
         <v>20</v>
@@ -4274,12 +4838,24 @@
       <c r="M54" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N54" s="40"/>
-      <c r="O54" s="40"/>
-      <c r="P54" s="40"/>
-      <c r="Q54" s="40"/>
-      <c r="R54" s="40"/>
-      <c r="S54" s="40"/>
+      <c r="N54" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O54" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P54" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q54" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R54" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S54" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T54" s="40"/>
       <c r="U54" s="40"/>
       <c r="V54" s="40"/>
@@ -4305,11 +4881,11 @@
       </c>
       <c r="E55" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G55" s="38" t="s">
         <v>21</v>
@@ -4330,12 +4906,24 @@
       <c r="M55" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N55" s="40"/>
-      <c r="O55" s="40"/>
-      <c r="P55" s="40"/>
-      <c r="Q55" s="40"/>
-      <c r="R55" s="40"/>
-      <c r="S55" s="40"/>
+      <c r="N55" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O55" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P55" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q55" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R55" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S55" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T55" s="40"/>
       <c r="U55" s="40"/>
       <c r="V55" s="40"/>
@@ -4361,11 +4949,11 @@
       </c>
       <c r="E56" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F56" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G56" s="38" t="s">
         <v>20</v>
@@ -4386,12 +4974,24 @@
       <c r="M56" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N56" s="40"/>
-      <c r="O56" s="40"/>
-      <c r="P56" s="40"/>
-      <c r="Q56" s="40"/>
-      <c r="R56" s="40"/>
-      <c r="S56" s="40"/>
+      <c r="N56" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O56" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P56" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q56" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R56" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S56" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="T56" s="40"/>
       <c r="U56" s="40"/>
       <c r="V56" s="40"/>
@@ -4417,11 +5017,11 @@
       </c>
       <c r="E57" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F57" s="37">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G57" s="38" t="s">
         <v>21</v>
@@ -4442,12 +5042,24 @@
       <c r="M57" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N57" s="40"/>
-      <c r="O57" s="40"/>
-      <c r="P57" s="40"/>
-      <c r="Q57" s="40"/>
-      <c r="R57" s="40"/>
-      <c r="S57" s="40"/>
+      <c r="N57" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O57" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P57" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q57" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R57" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S57" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T57" s="40"/>
       <c r="U57" s="40"/>
       <c r="V57" s="40"/>
@@ -4473,11 +5085,11 @@
       </c>
       <c r="E58" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F58" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G58" s="38" t="s">
         <v>20</v>
@@ -4498,12 +5110,24 @@
       <c r="M58" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N58" s="40"/>
-      <c r="O58" s="40"/>
-      <c r="P58" s="40"/>
-      <c r="Q58" s="40"/>
-      <c r="R58" s="40"/>
-      <c r="S58" s="40"/>
+      <c r="N58" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O58" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P58" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q58" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R58" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S58" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="T58" s="40"/>
       <c r="U58" s="40"/>
       <c r="V58" s="40"/>
@@ -4529,11 +5153,11 @@
       </c>
       <c r="E59" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F59" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G59" s="38" t="s">
         <v>20</v>
@@ -4554,12 +5178,24 @@
       <c r="M59" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N59" s="40"/>
-      <c r="O59" s="40"/>
-      <c r="P59" s="40"/>
-      <c r="Q59" s="40"/>
-      <c r="R59" s="40"/>
-      <c r="S59" s="40"/>
+      <c r="N59" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O59" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P59" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q59" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R59" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S59" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T59" s="40"/>
       <c r="U59" s="40"/>
       <c r="V59" s="40"/>
@@ -4589,7 +5225,7 @@
       </c>
       <c r="F60" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G60" s="38" t="s">
         <v>20</v>
@@ -4610,12 +5246,24 @@
       <c r="M60" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N60" s="40"/>
-      <c r="O60" s="40"/>
-      <c r="P60" s="40"/>
-      <c r="Q60" s="40"/>
-      <c r="R60" s="40"/>
-      <c r="S60" s="40"/>
+      <c r="N60" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O60" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P60" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q60" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R60" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S60" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T60" s="40"/>
       <c r="U60" s="40"/>
       <c r="V60" s="40"/>
@@ -4641,7 +5289,7 @@
       </c>
       <c r="E61" s="28">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F61" s="37">
         <f t="shared" si="2"/>
@@ -4666,12 +5314,24 @@
       <c r="M61" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N61" s="40"/>
-      <c r="O61" s="40"/>
-      <c r="P61" s="40"/>
-      <c r="Q61" s="40"/>
-      <c r="R61" s="40"/>
-      <c r="S61" s="40"/>
+      <c r="N61" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O61" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P61" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q61" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R61" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S61" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="T61" s="40"/>
       <c r="U61" s="40"/>
       <c r="V61" s="40"/>
@@ -4697,11 +5357,11 @@
       </c>
       <c r="E62" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F62" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G62" s="38" t="s">
         <v>20</v>
@@ -4722,12 +5382,24 @@
       <c r="M62" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N62" s="40"/>
-      <c r="O62" s="40"/>
-      <c r="P62" s="40"/>
-      <c r="Q62" s="40"/>
-      <c r="R62" s="40"/>
-      <c r="S62" s="40"/>
+      <c r="N62" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O62" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P62" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q62" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R62" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S62" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T62" s="40"/>
       <c r="U62" s="40"/>
       <c r="V62" s="40"/>
@@ -4757,7 +5429,7 @@
       </c>
       <c r="F63" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G63" s="38" t="s">
         <v>20</v>
@@ -4778,12 +5450,24 @@
       <c r="M63" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N63" s="40"/>
-      <c r="O63" s="40"/>
-      <c r="P63" s="40"/>
-      <c r="Q63" s="40"/>
-      <c r="R63" s="40"/>
-      <c r="S63" s="40"/>
+      <c r="N63" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O63" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P63" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q63" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R63" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S63" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T63" s="40"/>
       <c r="U63" s="40"/>
       <c r="V63" s="40"/>
@@ -4813,7 +5497,7 @@
       </c>
       <c r="F64" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G64" s="38" t="s">
         <v>21</v>
@@ -4834,12 +5518,24 @@
       <c r="M64" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N64" s="40"/>
-      <c r="O64" s="40"/>
-      <c r="P64" s="40"/>
-      <c r="Q64" s="40"/>
-      <c r="R64" s="40"/>
-      <c r="S64" s="40"/>
+      <c r="N64" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O64" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P64" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q64" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R64" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S64" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T64" s="40"/>
       <c r="U64" s="40"/>
       <c r="V64" s="40"/>
@@ -4869,7 +5565,7 @@
       </c>
       <c r="F65" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G65" s="38" t="s">
         <v>20</v>
@@ -4890,12 +5586,24 @@
       <c r="M65" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N65" s="40"/>
-      <c r="O65" s="40"/>
-      <c r="P65" s="40"/>
-      <c r="Q65" s="40"/>
-      <c r="R65" s="40"/>
-      <c r="S65" s="40"/>
+      <c r="N65" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O65" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P65" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q65" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R65" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S65" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T65" s="40"/>
       <c r="U65" s="40"/>
       <c r="V65" s="40"/>
@@ -4921,11 +5629,11 @@
       </c>
       <c r="E66" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F66" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G66" s="38" t="s">
         <v>20</v>
@@ -4946,12 +5654,24 @@
       <c r="M66" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N66" s="40"/>
-      <c r="O66" s="40"/>
-      <c r="P66" s="40"/>
-      <c r="Q66" s="40"/>
-      <c r="R66" s="40"/>
-      <c r="S66" s="40"/>
+      <c r="N66" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O66" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P66" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q66" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R66" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S66" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T66" s="40"/>
       <c r="U66" s="40"/>
       <c r="V66" s="40"/>
@@ -4977,11 +5697,11 @@
       </c>
       <c r="E67" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F67" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G67" s="38" t="s">
         <v>20</v>
@@ -5002,12 +5722,24 @@
       <c r="M67" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N67" s="40"/>
-      <c r="O67" s="40"/>
-      <c r="P67" s="40"/>
-      <c r="Q67" s="40"/>
-      <c r="R67" s="40"/>
-      <c r="S67" s="40"/>
+      <c r="N67" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O67" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P67" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q67" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R67" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S67" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T67" s="40"/>
       <c r="U67" s="40"/>
       <c r="V67" s="40"/>
@@ -5033,11 +5765,11 @@
       </c>
       <c r="E68" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F68" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G68" s="38" t="s">
         <v>20</v>
@@ -5058,12 +5790,24 @@
       <c r="M68" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N68" s="40"/>
-      <c r="O68" s="40"/>
-      <c r="P68" s="40"/>
-      <c r="Q68" s="40"/>
-      <c r="R68" s="40"/>
-      <c r="S68" s="40"/>
+      <c r="N68" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O68" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P68" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q68" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R68" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S68" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T68" s="40"/>
       <c r="U68" s="40"/>
       <c r="V68" s="40"/>
@@ -5093,7 +5837,7 @@
       </c>
       <c r="F69" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G69" s="38" t="s">
         <v>20</v>
@@ -5114,12 +5858,24 @@
       <c r="M69" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N69" s="40"/>
-      <c r="O69" s="40"/>
-      <c r="P69" s="40"/>
-      <c r="Q69" s="40"/>
-      <c r="R69" s="40"/>
-      <c r="S69" s="40"/>
+      <c r="N69" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O69" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P69" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q69" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R69" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S69" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T69" s="40"/>
       <c r="U69" s="40"/>
       <c r="V69" s="40"/>
@@ -5145,11 +5901,11 @@
       </c>
       <c r="E70" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F70" s="37">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G70" s="38" t="s">
         <v>21</v>
@@ -5170,12 +5926,24 @@
       <c r="M70" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N70" s="40"/>
-      <c r="O70" s="40"/>
-      <c r="P70" s="40"/>
-      <c r="Q70" s="40"/>
-      <c r="R70" s="40"/>
-      <c r="S70" s="40"/>
+      <c r="N70" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O70" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P70" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q70" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R70" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S70" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T70" s="40"/>
       <c r="U70" s="40"/>
       <c r="V70" s="40"/>
@@ -5201,11 +5969,11 @@
       </c>
       <c r="E71" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F71" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G71" s="38" t="s">
         <v>20</v>
@@ -5226,12 +5994,24 @@
       <c r="M71" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N71" s="40"/>
-      <c r="O71" s="40"/>
-      <c r="P71" s="40"/>
-      <c r="Q71" s="40"/>
-      <c r="R71" s="40"/>
-      <c r="S71" s="40"/>
+      <c r="N71" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O71" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P71" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q71" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R71" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S71" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T71" s="40"/>
       <c r="U71" s="40"/>
       <c r="V71" s="40"/>
@@ -5261,7 +6041,7 @@
       </c>
       <c r="F72" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G72" s="38" t="s">
         <v>20</v>
@@ -5282,12 +6062,24 @@
       <c r="M72" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N72" s="40"/>
-      <c r="O72" s="40"/>
-      <c r="P72" s="40"/>
-      <c r="Q72" s="40"/>
-      <c r="R72" s="40"/>
-      <c r="S72" s="40"/>
+      <c r="N72" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O72" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P72" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q72" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R72" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S72" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T72" s="40"/>
       <c r="U72" s="40"/>
       <c r="V72" s="40"/>
@@ -5313,11 +6105,11 @@
       </c>
       <c r="E73" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G73" s="38" t="s">
         <v>20</v>
@@ -5338,12 +6130,24 @@
       <c r="M73" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N73" s="40"/>
-      <c r="O73" s="40"/>
-      <c r="P73" s="40"/>
-      <c r="Q73" s="40"/>
-      <c r="R73" s="40"/>
-      <c r="S73" s="40"/>
+      <c r="N73" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O73" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P73" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q73" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R73" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S73" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T73" s="40"/>
       <c r="U73" s="40"/>
       <c r="V73" s="40"/>
@@ -5369,11 +6173,11 @@
       </c>
       <c r="E74" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F74" s="37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G74" s="38" t="s">
         <v>21</v>
@@ -5394,12 +6198,24 @@
       <c r="M74" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N74" s="40"/>
-      <c r="O74" s="40"/>
-      <c r="P74" s="40"/>
-      <c r="Q74" s="40"/>
-      <c r="R74" s="40"/>
-      <c r="S74" s="40"/>
+      <c r="N74" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O74" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P74" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q74" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R74" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S74" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T74" s="40"/>
       <c r="U74" s="40"/>
       <c r="V74" s="40"/>
@@ -5425,11 +6241,11 @@
       </c>
       <c r="E75" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F75" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G75" s="38" t="s">
         <v>21</v>
@@ -5450,12 +6266,24 @@
       <c r="M75" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N75" s="40"/>
-      <c r="O75" s="40"/>
-      <c r="P75" s="40"/>
-      <c r="Q75" s="40"/>
-      <c r="R75" s="40"/>
-      <c r="S75" s="40"/>
+      <c r="N75" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O75" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P75" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q75" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R75" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S75" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T75" s="40"/>
       <c r="U75" s="40"/>
       <c r="V75" s="40"/>
@@ -5481,11 +6309,11 @@
       </c>
       <c r="E76" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F76" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G76" s="38" t="s">
         <v>20</v>
@@ -5506,12 +6334,24 @@
       <c r="M76" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N76" s="40"/>
-      <c r="O76" s="40"/>
-      <c r="P76" s="40"/>
-      <c r="Q76" s="40"/>
-      <c r="R76" s="40"/>
-      <c r="S76" s="40"/>
+      <c r="N76" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O76" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P76" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q76" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R76" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S76" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="T76" s="40"/>
       <c r="U76" s="40"/>
       <c r="V76" s="40"/>
@@ -5541,7 +6381,7 @@
       </c>
       <c r="F77" s="37">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G77" s="38" t="s">
         <v>20</v>
@@ -5562,12 +6402,24 @@
       <c r="M77" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="N77" s="40"/>
-      <c r="O77" s="40"/>
-      <c r="P77" s="40"/>
-      <c r="Q77" s="40"/>
-      <c r="R77" s="40"/>
-      <c r="S77" s="40"/>
+      <c r="N77" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O77" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P77" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q77" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R77" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S77" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="T77" s="40"/>
       <c r="U77" s="40"/>
       <c r="V77" s="40"/>

--- a/attendance-files/SDM/SDM-M (EFGH) Attendance Sheet.xlsx
+++ b/attendance-files/SDM/SDM-M (EFGH) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="162">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -81,31 +81,31 @@
     <t>A</t>
   </si>
   <si>
+    <t>2024PGP536</t>
+  </si>
+  <si>
+    <t>Gouri Sreekumar</t>
+  </si>
+  <si>
+    <t>2021IPM055</t>
+  </si>
+  <si>
+    <t>Himagni Boro</t>
+  </si>
+  <si>
+    <t>2024PGP479</t>
+  </si>
+  <si>
+    <t>Himanshu Yadav</t>
+  </si>
+  <si>
+    <t>2024PGP235</t>
+  </si>
+  <si>
+    <t>Meet Jagdish Ramoliya</t>
+  </si>
+  <si>
     <t>P</t>
-  </si>
-  <si>
-    <t>2024PGP536</t>
-  </si>
-  <si>
-    <t>Gouri Sreekumar</t>
-  </si>
-  <si>
-    <t>2021IPM055</t>
-  </si>
-  <si>
-    <t>Himagni Boro</t>
-  </si>
-  <si>
-    <t>2024PGP479</t>
-  </si>
-  <si>
-    <t>Himanshu Yadav</t>
-  </si>
-  <si>
-    <t>2024PGP235</t>
-  </si>
-  <si>
-    <t>Meet Jagdish Ramoliya</t>
   </si>
   <si>
     <t>2024PGP245</t>
@@ -1617,11 +1617,11 @@
       </c>
       <c r="E7" s="28">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F7" s="29">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>20</v>
@@ -1629,37 +1629,17 @@
       <c r="H7" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I7" s="32"/>
       <c r="J7" s="32"/>
-      <c r="K7" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="P7" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q7" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="R7" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="S7" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
       <c r="T7" s="32"/>
       <c r="U7" s="32"/>
       <c r="V7" s="32"/>
@@ -1675,21 +1655,21 @@
         <v>2</v>
       </c>
       <c r="B8" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="36" t="s">
-        <v>23</v>
-      </c>
       <c r="D8" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G8" s="38" t="s">
         <v>20</v>
@@ -1697,37 +1677,17 @@
       <c r="H8" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I8" s="40"/>
       <c r="J8" s="40"/>
-      <c r="K8" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O8" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P8" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q8" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R8" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S8" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
       <c r="T8" s="40"/>
       <c r="U8" s="40"/>
       <c r="V8" s="40"/>
@@ -1743,11 +1703,11 @@
         <v>3</v>
       </c>
       <c r="B9" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="36" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" s="27" t="s">
         <v>9</v>
       </c>
@@ -1757,7 +1717,7 @@
       </c>
       <c r="F9" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G9" s="38" t="s">
         <v>20</v>
@@ -1765,37 +1725,17 @@
       <c r="H9" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I9" s="40"/>
       <c r="J9" s="40"/>
-      <c r="K9" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O9" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P9" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q9" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R9" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S9" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
       <c r="T9" s="40"/>
       <c r="U9" s="40"/>
       <c r="V9" s="40"/>
@@ -1811,21 +1751,21 @@
         <v>4</v>
       </c>
       <c r="B10" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="36" t="s">
-        <v>27</v>
-      </c>
       <c r="D10" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="28">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F10" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G10" s="38" t="s">
         <v>20</v>
@@ -1833,37 +1773,17 @@
       <c r="H10" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I10" s="40"/>
       <c r="J10" s="40"/>
-      <c r="K10" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O10" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P10" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="R10" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S10" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
       <c r="T10" s="40"/>
       <c r="U10" s="40"/>
       <c r="V10" s="40"/>
@@ -1879,59 +1799,39 @@
         <v>5</v>
       </c>
       <c r="B11" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="D11" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="37">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G11" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="37">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="G11" s="38" t="s">
-        <v>21</v>
-      </c>
       <c r="H11" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="31" t="s">
-        <v>21</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I11" s="40"/>
       <c r="J11" s="40"/>
-      <c r="K11" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O11" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P11" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q11" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R11" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S11" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
       <c r="T11" s="40"/>
       <c r="U11" s="40"/>
       <c r="V11" s="40"/>
@@ -1961,7 +1861,7 @@
       </c>
       <c r="F12" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G12" s="38" t="s">
         <v>20</v>
@@ -1969,37 +1869,17 @@
       <c r="H12" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I12" s="40"/>
       <c r="J12" s="40"/>
-      <c r="K12" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O12" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P12" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q12" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R12" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S12" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
       <c r="T12" s="40"/>
       <c r="U12" s="40"/>
       <c r="V12" s="40"/>
@@ -2025,49 +1905,29 @@
       </c>
       <c r="E13" s="28">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F13" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G13" s="38" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H13" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="31" t="s">
-        <v>21</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="I13" s="40"/>
       <c r="J13" s="40"/>
-      <c r="K13" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="N13" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="O13" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P13" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q13" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R13" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="S13" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
       <c r="T13" s="40"/>
       <c r="U13" s="40"/>
       <c r="V13" s="40"/>
@@ -2093,11 +1953,11 @@
       </c>
       <c r="E14" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G14" s="38" t="s">
         <v>20</v>
@@ -2105,37 +1965,17 @@
       <c r="H14" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I14" s="40"/>
       <c r="J14" s="40"/>
-      <c r="K14" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O14" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P14" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q14" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R14" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S14" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
       <c r="T14" s="40"/>
       <c r="U14" s="40"/>
       <c r="V14" s="40"/>
@@ -2161,11 +2001,11 @@
       </c>
       <c r="E15" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G15" s="38" t="s">
         <v>20</v>
@@ -2173,37 +2013,17 @@
       <c r="H15" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I15" s="40"/>
       <c r="J15" s="40"/>
-      <c r="K15" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="N15" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O15" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P15" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q15" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R15" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S15" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
       <c r="T15" s="40"/>
       <c r="U15" s="40"/>
       <c r="V15" s="40"/>
@@ -2229,49 +2049,29 @@
       </c>
       <c r="E16" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F16" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H16" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I16" s="40"/>
       <c r="J16" s="40"/>
-      <c r="K16" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="O16" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P16" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q16" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R16" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S16" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
       <c r="T16" s="40"/>
       <c r="U16" s="40"/>
       <c r="V16" s="40"/>
@@ -2297,11 +2097,11 @@
       </c>
       <c r="E17" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G17" s="38" t="s">
         <v>20</v>
@@ -2309,37 +2109,17 @@
       <c r="H17" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I17" s="40"/>
       <c r="J17" s="40"/>
-      <c r="K17" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M17" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="N17" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O17" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P17" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q17" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S17" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
       <c r="T17" s="40"/>
       <c r="U17" s="40"/>
       <c r="V17" s="40"/>
@@ -2369,7 +2149,7 @@
       </c>
       <c r="F18" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G18" s="38" t="s">
         <v>20</v>
@@ -2377,37 +2157,17 @@
       <c r="H18" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I18" s="40"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O18" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P18" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q18" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S18" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
       <c r="T18" s="40"/>
       <c r="U18" s="40"/>
       <c r="V18" s="40"/>
@@ -2433,49 +2193,29 @@
       </c>
       <c r="E19" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F19" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G19" s="38" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H19" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="31" t="s">
-        <v>21</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I19" s="40"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M19" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="N19" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="O19" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="P19" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q19" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R19" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S19" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
       <c r="T19" s="40"/>
       <c r="U19" s="40"/>
       <c r="V19" s="40"/>
@@ -2501,49 +2241,29 @@
       </c>
       <c r="E20" s="28">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="37">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F20" s="37">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
       <c r="G20" s="38" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H20" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="31" t="s">
-        <v>21</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I20" s="40"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M20" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N20" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="O20" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="P20" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q20" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R20" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S20" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
       <c r="T20" s="40"/>
       <c r="U20" s="40"/>
       <c r="V20" s="40"/>
@@ -2569,49 +2289,29 @@
       </c>
       <c r="E21" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F21" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H21" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I21" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="I21" s="40"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M21" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="N21" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O21" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q21" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="R21" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S21" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
       <c r="T21" s="40"/>
       <c r="U21" s="40"/>
       <c r="V21" s="40"/>
@@ -2637,49 +2337,29 @@
       </c>
       <c r="E22" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F22" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H22" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="39" t="s">
-        <v>20</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I22" s="40"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M22" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N22" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O22" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P22" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q22" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R22" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S22" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
       <c r="T22" s="40"/>
       <c r="U22" s="40"/>
       <c r="V22" s="40"/>
@@ -2705,49 +2385,29 @@
       </c>
       <c r="E23" s="28">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="37">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F23" s="37">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
       <c r="G23" s="38" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H23" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="I23" s="39" t="s">
-        <v>21</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I23" s="40"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N23" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O23" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P23" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q23" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R23" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S23" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
       <c r="T23" s="40"/>
       <c r="U23" s="40"/>
       <c r="V23" s="40"/>
@@ -2773,49 +2433,29 @@
       </c>
       <c r="E24" s="28">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="37">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F24" s="37">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
       <c r="G24" s="38" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H24" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="39" t="s">
-        <v>21</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I24" s="40"/>
       <c r="J24" s="40"/>
-      <c r="K24" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M24" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N24" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O24" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P24" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q24" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R24" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="S24" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
       <c r="T24" s="40"/>
       <c r="U24" s="40"/>
       <c r="V24" s="40"/>
@@ -2841,49 +2481,29 @@
       </c>
       <c r="E25" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F25" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G25" s="38" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H25" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="39" t="s">
-        <v>21</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I25" s="40"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N25" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O25" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P25" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q25" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R25" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="S25" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
       <c r="T25" s="40"/>
       <c r="U25" s="40"/>
       <c r="V25" s="40"/>
@@ -2913,7 +2533,7 @@
       </c>
       <c r="F26" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G26" s="38" t="s">
         <v>20</v>
@@ -2921,37 +2541,17 @@
       <c r="H26" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I26" s="40"/>
       <c r="J26" s="40"/>
-      <c r="K26" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M26" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N26" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O26" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P26" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q26" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R26" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S26" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
       <c r="T26" s="40"/>
       <c r="U26" s="40"/>
       <c r="V26" s="40"/>
@@ -2977,49 +2577,29 @@
       </c>
       <c r="E27" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F27" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G27" s="38" t="s">
         <v>20</v>
       </c>
       <c r="H27" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="I27" s="39" t="s">
-        <v>21</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I27" s="40"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="M27" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N27" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O27" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P27" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q27" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R27" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S27" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
       <c r="T27" s="40"/>
       <c r="U27" s="40"/>
       <c r="V27" s="40"/>
@@ -3045,11 +2625,11 @@
       </c>
       <c r="E28" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G28" s="38" t="s">
         <v>20</v>
@@ -3057,37 +2637,17 @@
       <c r="H28" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="I28" s="40"/>
       <c r="J28" s="40"/>
-      <c r="K28" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M28" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N28" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O28" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P28" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q28" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R28" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S28" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
       <c r="T28" s="40"/>
       <c r="U28" s="40"/>
       <c r="V28" s="40"/>
@@ -3113,11 +2673,11 @@
       </c>
       <c r="E29" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G29" s="38" t="s">
         <v>20</v>
@@ -3125,37 +2685,17 @@
       <c r="H29" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="I29" s="40"/>
       <c r="J29" s="40"/>
-      <c r="K29" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M29" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N29" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O29" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P29" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q29" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R29" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S29" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
       <c r="T29" s="40"/>
       <c r="U29" s="40"/>
       <c r="V29" s="40"/>
@@ -3185,45 +2725,25 @@
       </c>
       <c r="F30" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G30" s="38" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H30" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30" s="39" t="s">
-        <v>21</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I30" s="40"/>
       <c r="J30" s="40"/>
-      <c r="K30" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L30" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M30" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N30" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O30" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P30" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q30" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R30" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S30" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="40"/>
       <c r="T30" s="40"/>
       <c r="U30" s="40"/>
       <c r="V30" s="40"/>
@@ -3249,11 +2769,11 @@
       </c>
       <c r="E31" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F31" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G31" s="38" t="s">
         <v>20</v>
@@ -3261,37 +2781,17 @@
       <c r="H31" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I31" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I31" s="40"/>
       <c r="J31" s="40"/>
-      <c r="K31" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M31" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="N31" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O31" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P31" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q31" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R31" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S31" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
       <c r="T31" s="40"/>
       <c r="U31" s="40"/>
       <c r="V31" s="40"/>
@@ -3317,11 +2817,11 @@
       </c>
       <c r="E32" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G32" s="38" t="s">
         <v>20</v>
@@ -3329,37 +2829,17 @@
       <c r="H32" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I32" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I32" s="40"/>
       <c r="J32" s="40"/>
-      <c r="K32" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M32" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N32" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O32" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P32" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q32" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R32" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="S32" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
       <c r="T32" s="40"/>
       <c r="U32" s="40"/>
       <c r="V32" s="40"/>
@@ -3385,11 +2865,11 @@
       </c>
       <c r="E33" s="28">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F33" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G33" s="38" t="s">
         <v>20</v>
@@ -3397,37 +2877,17 @@
       <c r="H33" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I33" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="I33" s="40"/>
       <c r="J33" s="40"/>
-      <c r="K33" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="M33" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="N33" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O33" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P33" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q33" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R33" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S33" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="40"/>
       <c r="T33" s="40"/>
       <c r="U33" s="40"/>
       <c r="V33" s="40"/>
@@ -3453,11 +2913,11 @@
       </c>
       <c r="E34" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G34" s="38" t="s">
         <v>20</v>
@@ -3465,37 +2925,17 @@
       <c r="H34" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I34" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I34" s="40"/>
       <c r="J34" s="40"/>
-      <c r="K34" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M34" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N34" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O34" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P34" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q34" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R34" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S34" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="40"/>
       <c r="T34" s="40"/>
       <c r="U34" s="40"/>
       <c r="V34" s="40"/>
@@ -3521,11 +2961,11 @@
       </c>
       <c r="E35" s="28">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F35" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G35" s="38" t="s">
         <v>20</v>
@@ -3533,37 +2973,17 @@
       <c r="H35" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I35" s="40"/>
       <c r="J35" s="40"/>
-      <c r="K35" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L35" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="M35" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N35" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O35" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="P35" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q35" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R35" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S35" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="40"/>
       <c r="T35" s="40"/>
       <c r="U35" s="40"/>
       <c r="V35" s="40"/>
@@ -3589,11 +3009,11 @@
       </c>
       <c r="E36" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F36" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G36" s="38" t="s">
         <v>20</v>
@@ -3601,37 +3021,17 @@
       <c r="H36" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I36" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I36" s="40"/>
       <c r="J36" s="40"/>
-      <c r="K36" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L36" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M36" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N36" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O36" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="P36" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q36" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="R36" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S36" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="40"/>
       <c r="T36" s="40"/>
       <c r="U36" s="40"/>
       <c r="V36" s="40"/>
@@ -3657,11 +3057,11 @@
       </c>
       <c r="E37" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G37" s="38" t="s">
         <v>20</v>
@@ -3669,37 +3069,17 @@
       <c r="H37" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I37" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I37" s="40"/>
       <c r="J37" s="40"/>
-      <c r="K37" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L37" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M37" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N37" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O37" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P37" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q37" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R37" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S37" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="40"/>
+      <c r="S37" s="40"/>
       <c r="T37" s="40"/>
       <c r="U37" s="40"/>
       <c r="V37" s="40"/>
@@ -3725,11 +3105,11 @@
       </c>
       <c r="E38" s="28">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F38" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G38" s="38" t="s">
         <v>20</v>
@@ -3737,37 +3117,17 @@
       <c r="H38" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I38" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I38" s="40"/>
       <c r="J38" s="40"/>
-      <c r="K38" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L38" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M38" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="N38" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O38" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P38" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q38" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="R38" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S38" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="40"/>
+      <c r="S38" s="40"/>
       <c r="T38" s="40"/>
       <c r="U38" s="40"/>
       <c r="V38" s="40"/>
@@ -3793,49 +3153,29 @@
       </c>
       <c r="E39" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F39" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G39" s="38" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H39" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I39" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="I39" s="40"/>
       <c r="J39" s="40"/>
-      <c r="K39" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L39" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M39" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N39" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="O39" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P39" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q39" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R39" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S39" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="40"/>
+      <c r="S39" s="40"/>
       <c r="T39" s="40"/>
       <c r="U39" s="40"/>
       <c r="V39" s="40"/>
@@ -3861,11 +3201,11 @@
       </c>
       <c r="E40" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G40" s="38" t="s">
         <v>20</v>
@@ -3873,37 +3213,17 @@
       <c r="H40" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I40" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I40" s="40"/>
       <c r="J40" s="40"/>
-      <c r="K40" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L40" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M40" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="N40" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O40" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P40" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q40" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R40" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S40" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="40"/>
+      <c r="S40" s="40"/>
       <c r="T40" s="40"/>
       <c r="U40" s="40"/>
       <c r="V40" s="40"/>
@@ -3929,49 +3249,29 @@
       </c>
       <c r="E41" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F41" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G41" s="38" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H41" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="I41" s="39" t="s">
-        <v>20</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I41" s="40"/>
       <c r="J41" s="40"/>
-      <c r="K41" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L41" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M41" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N41" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O41" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P41" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q41" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R41" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="S41" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="40"/>
+      <c r="S41" s="40"/>
       <c r="T41" s="40"/>
       <c r="U41" s="40"/>
       <c r="V41" s="40"/>
@@ -3997,11 +3297,11 @@
       </c>
       <c r="E42" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F42" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G42" s="38" t="s">
         <v>20</v>
@@ -4009,37 +3309,17 @@
       <c r="H42" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I42" s="40"/>
       <c r="J42" s="40"/>
-      <c r="K42" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L42" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M42" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="N42" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O42" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P42" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q42" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R42" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S42" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="40"/>
+      <c r="S42" s="40"/>
       <c r="T42" s="40"/>
       <c r="U42" s="40"/>
       <c r="V42" s="40"/>
@@ -4065,11 +3345,11 @@
       </c>
       <c r="E43" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G43" s="38" t="s">
         <v>20</v>
@@ -4077,37 +3357,17 @@
       <c r="H43" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I43" s="40"/>
       <c r="J43" s="40"/>
-      <c r="K43" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L43" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M43" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N43" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O43" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P43" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q43" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="R43" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S43" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K43" s="40"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="40"/>
+      <c r="S43" s="40"/>
       <c r="T43" s="40"/>
       <c r="U43" s="40"/>
       <c r="V43" s="40"/>
@@ -4133,11 +3393,11 @@
       </c>
       <c r="E44" s="28">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F44" s="37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G44" s="38" t="s">
         <v>20</v>
@@ -4145,37 +3405,17 @@
       <c r="H44" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I44" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I44" s="40"/>
       <c r="J44" s="40"/>
-      <c r="K44" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L44" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M44" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N44" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="O44" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="P44" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q44" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R44" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S44" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="40"/>
+      <c r="S44" s="40"/>
       <c r="T44" s="40"/>
       <c r="U44" s="40"/>
       <c r="V44" s="40"/>
@@ -4205,7 +3445,7 @@
       </c>
       <c r="F45" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G45" s="38" t="s">
         <v>20</v>
@@ -4213,37 +3453,17 @@
       <c r="H45" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I45" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I45" s="40"/>
       <c r="J45" s="40"/>
-      <c r="K45" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L45" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M45" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N45" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O45" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P45" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q45" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R45" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S45" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="40"/>
+      <c r="S45" s="40"/>
       <c r="T45" s="40"/>
       <c r="U45" s="40"/>
       <c r="V45" s="40"/>
@@ -4269,11 +3489,11 @@
       </c>
       <c r="E46" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F46" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G46" s="38" t="s">
         <v>20</v>
@@ -4281,37 +3501,17 @@
       <c r="H46" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I46" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I46" s="40"/>
       <c r="J46" s="40"/>
-      <c r="K46" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L46" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M46" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N46" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="O46" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P46" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q46" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R46" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S46" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="40"/>
+      <c r="O46" s="40"/>
+      <c r="P46" s="40"/>
+      <c r="Q46" s="40"/>
+      <c r="R46" s="40"/>
+      <c r="S46" s="40"/>
       <c r="T46" s="40"/>
       <c r="U46" s="40"/>
       <c r="V46" s="40"/>
@@ -4337,49 +3537,29 @@
       </c>
       <c r="E47" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F47" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G47" s="38" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H47" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="I47" s="39" t="s">
-        <v>21</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I47" s="40"/>
       <c r="J47" s="40"/>
-      <c r="K47" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L47" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M47" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N47" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="O47" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P47" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q47" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="R47" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S47" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="40"/>
+      <c r="P47" s="40"/>
+      <c r="Q47" s="40"/>
+      <c r="R47" s="40"/>
+      <c r="S47" s="40"/>
       <c r="T47" s="40"/>
       <c r="U47" s="40"/>
       <c r="V47" s="40"/>
@@ -4405,11 +3585,11 @@
       </c>
       <c r="E48" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F48" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G48" s="38" t="s">
         <v>20</v>
@@ -4417,37 +3597,17 @@
       <c r="H48" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I48" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I48" s="40"/>
       <c r="J48" s="40"/>
-      <c r="K48" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L48" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M48" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N48" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O48" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P48" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q48" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R48" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S48" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="40"/>
+      <c r="P48" s="40"/>
+      <c r="Q48" s="40"/>
+      <c r="R48" s="40"/>
+      <c r="S48" s="40"/>
       <c r="T48" s="40"/>
       <c r="U48" s="40"/>
       <c r="V48" s="40"/>
@@ -4473,11 +3633,11 @@
       </c>
       <c r="E49" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G49" s="38" t="s">
         <v>20</v>
@@ -4485,37 +3645,17 @@
       <c r="H49" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I49" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I49" s="40"/>
       <c r="J49" s="40"/>
-      <c r="K49" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L49" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M49" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N49" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O49" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P49" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q49" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="R49" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S49" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K49" s="40"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="40"/>
+      <c r="O49" s="40"/>
+      <c r="P49" s="40"/>
+      <c r="Q49" s="40"/>
+      <c r="R49" s="40"/>
+      <c r="S49" s="40"/>
       <c r="T49" s="40"/>
       <c r="U49" s="40"/>
       <c r="V49" s="40"/>
@@ -4545,7 +3685,7 @@
       </c>
       <c r="F50" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G50" s="38" t="s">
         <v>20</v>
@@ -4553,37 +3693,17 @@
       <c r="H50" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I50" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I50" s="40"/>
       <c r="J50" s="40"/>
-      <c r="K50" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L50" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M50" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N50" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O50" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P50" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q50" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R50" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S50" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="40"/>
+      <c r="O50" s="40"/>
+      <c r="P50" s="40"/>
+      <c r="Q50" s="40"/>
+      <c r="R50" s="40"/>
+      <c r="S50" s="40"/>
       <c r="T50" s="40"/>
       <c r="U50" s="40"/>
       <c r="V50" s="40"/>
@@ -4613,45 +3733,25 @@
       </c>
       <c r="F51" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G51" s="38" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H51" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="I51" s="39" t="s">
-        <v>21</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I51" s="40"/>
       <c r="J51" s="40"/>
-      <c r="K51" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L51" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M51" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N51" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O51" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P51" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q51" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R51" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S51" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="40"/>
+      <c r="P51" s="40"/>
+      <c r="Q51" s="40"/>
+      <c r="R51" s="40"/>
+      <c r="S51" s="40"/>
       <c r="T51" s="40"/>
       <c r="U51" s="40"/>
       <c r="V51" s="40"/>
@@ -4677,11 +3777,11 @@
       </c>
       <c r="E52" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G52" s="38" t="s">
         <v>20</v>
@@ -4689,37 +3789,17 @@
       <c r="H52" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I52" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I52" s="40"/>
       <c r="J52" s="40"/>
-      <c r="K52" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L52" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="M52" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N52" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O52" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P52" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q52" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R52" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S52" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="40"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="40"/>
+      <c r="R52" s="40"/>
+      <c r="S52" s="40"/>
       <c r="T52" s="40"/>
       <c r="U52" s="40"/>
       <c r="V52" s="40"/>
@@ -4745,49 +3825,29 @@
       </c>
       <c r="E53" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F53" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G53" s="38" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H53" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="I53" s="39" t="s">
-        <v>21</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I53" s="40"/>
       <c r="J53" s="40"/>
-      <c r="K53" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L53" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M53" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N53" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O53" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P53" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q53" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R53" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="S53" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="K53" s="40"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="40"/>
+      <c r="N53" s="40"/>
+      <c r="O53" s="40"/>
+      <c r="P53" s="40"/>
+      <c r="Q53" s="40"/>
+      <c r="R53" s="40"/>
+      <c r="S53" s="40"/>
       <c r="T53" s="40"/>
       <c r="U53" s="40"/>
       <c r="V53" s="40"/>
@@ -4817,7 +3877,7 @@
       </c>
       <c r="F54" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G54" s="38" t="s">
         <v>20</v>
@@ -4825,37 +3885,17 @@
       <c r="H54" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I54" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I54" s="40"/>
       <c r="J54" s="40"/>
-      <c r="K54" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L54" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M54" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N54" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O54" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P54" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q54" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R54" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S54" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="40"/>
+      <c r="R54" s="40"/>
+      <c r="S54" s="40"/>
       <c r="T54" s="40"/>
       <c r="U54" s="40"/>
       <c r="V54" s="40"/>
@@ -4881,49 +3921,29 @@
       </c>
       <c r="E55" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" s="37">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G55" s="38" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H55" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="I55" s="39" t="s">
-        <v>21</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I55" s="40"/>
       <c r="J55" s="40"/>
-      <c r="K55" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L55" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M55" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N55" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O55" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="P55" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q55" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R55" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S55" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K55" s="40"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="40"/>
+      <c r="O55" s="40"/>
+      <c r="P55" s="40"/>
+      <c r="Q55" s="40"/>
+      <c r="R55" s="40"/>
+      <c r="S55" s="40"/>
       <c r="T55" s="40"/>
       <c r="U55" s="40"/>
       <c r="V55" s="40"/>
@@ -4949,11 +3969,11 @@
       </c>
       <c r="E56" s="28">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F56" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G56" s="38" t="s">
         <v>20</v>
@@ -4961,37 +3981,17 @@
       <c r="H56" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I56" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I56" s="40"/>
       <c r="J56" s="40"/>
-      <c r="K56" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L56" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M56" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N56" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="O56" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="P56" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q56" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R56" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S56" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="K56" s="40"/>
+      <c r="L56" s="40"/>
+      <c r="M56" s="40"/>
+      <c r="N56" s="40"/>
+      <c r="O56" s="40"/>
+      <c r="P56" s="40"/>
+      <c r="Q56" s="40"/>
+      <c r="R56" s="40"/>
+      <c r="S56" s="40"/>
       <c r="T56" s="40"/>
       <c r="U56" s="40"/>
       <c r="V56" s="40"/>
@@ -5017,49 +4017,29 @@
       </c>
       <c r="E57" s="28">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F57" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G57" s="38" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H57" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="I57" s="39" t="s">
-        <v>21</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I57" s="40"/>
       <c r="J57" s="40"/>
-      <c r="K57" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L57" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M57" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="N57" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="O57" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="P57" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q57" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="R57" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S57" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K57" s="40"/>
+      <c r="L57" s="40"/>
+      <c r="M57" s="40"/>
+      <c r="N57" s="40"/>
+      <c r="O57" s="40"/>
+      <c r="P57" s="40"/>
+      <c r="Q57" s="40"/>
+      <c r="R57" s="40"/>
+      <c r="S57" s="40"/>
       <c r="T57" s="40"/>
       <c r="U57" s="40"/>
       <c r="V57" s="40"/>
@@ -5085,49 +4065,29 @@
       </c>
       <c r="E58" s="28">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F58" s="37">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G58" s="38" t="s">
         <v>20</v>
       </c>
       <c r="H58" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="I58" s="39" t="s">
-        <v>20</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I58" s="40"/>
       <c r="J58" s="40"/>
-      <c r="K58" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L58" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M58" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="N58" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O58" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="P58" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q58" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R58" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S58" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="K58" s="40"/>
+      <c r="L58" s="40"/>
+      <c r="M58" s="40"/>
+      <c r="N58" s="40"/>
+      <c r="O58" s="40"/>
+      <c r="P58" s="40"/>
+      <c r="Q58" s="40"/>
+      <c r="R58" s="40"/>
+      <c r="S58" s="40"/>
       <c r="T58" s="40"/>
       <c r="U58" s="40"/>
       <c r="V58" s="40"/>
@@ -5153,11 +4113,11 @@
       </c>
       <c r="E59" s="28">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F59" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G59" s="38" t="s">
         <v>20</v>
@@ -5165,37 +4125,17 @@
       <c r="H59" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I59" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I59" s="40"/>
       <c r="J59" s="40"/>
-      <c r="K59" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L59" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M59" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="N59" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="O59" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P59" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q59" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R59" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S59" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K59" s="40"/>
+      <c r="L59" s="40"/>
+      <c r="M59" s="40"/>
+      <c r="N59" s="40"/>
+      <c r="O59" s="40"/>
+      <c r="P59" s="40"/>
+      <c r="Q59" s="40"/>
+      <c r="R59" s="40"/>
+      <c r="S59" s="40"/>
       <c r="T59" s="40"/>
       <c r="U59" s="40"/>
       <c r="V59" s="40"/>
@@ -5221,11 +4161,11 @@
       </c>
       <c r="E60" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F60" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G60" s="38" t="s">
         <v>20</v>
@@ -5233,37 +4173,17 @@
       <c r="H60" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I60" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I60" s="40"/>
       <c r="J60" s="40"/>
-      <c r="K60" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L60" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M60" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N60" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O60" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P60" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q60" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R60" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S60" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K60" s="40"/>
+      <c r="L60" s="40"/>
+      <c r="M60" s="40"/>
+      <c r="N60" s="40"/>
+      <c r="O60" s="40"/>
+      <c r="P60" s="40"/>
+      <c r="Q60" s="40"/>
+      <c r="R60" s="40"/>
+      <c r="S60" s="40"/>
       <c r="T60" s="40"/>
       <c r="U60" s="40"/>
       <c r="V60" s="40"/>
@@ -5289,7 +4209,7 @@
       </c>
       <c r="E61" s="28">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F61" s="37">
         <f t="shared" si="2"/>
@@ -5301,37 +4221,17 @@
       <c r="H61" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I61" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="I61" s="40"/>
       <c r="J61" s="40"/>
-      <c r="K61" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L61" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="M61" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="N61" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="O61" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="P61" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q61" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="R61" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="S61" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="K61" s="40"/>
+      <c r="L61" s="40"/>
+      <c r="M61" s="40"/>
+      <c r="N61" s="40"/>
+      <c r="O61" s="40"/>
+      <c r="P61" s="40"/>
+      <c r="Q61" s="40"/>
+      <c r="R61" s="40"/>
+      <c r="S61" s="40"/>
       <c r="T61" s="40"/>
       <c r="U61" s="40"/>
       <c r="V61" s="40"/>
@@ -5357,11 +4257,11 @@
       </c>
       <c r="E62" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F62" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G62" s="38" t="s">
         <v>20</v>
@@ -5369,37 +4269,17 @@
       <c r="H62" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I62" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I62" s="40"/>
       <c r="J62" s="40"/>
-      <c r="K62" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L62" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M62" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N62" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O62" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P62" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q62" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R62" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="S62" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K62" s="40"/>
+      <c r="L62" s="40"/>
+      <c r="M62" s="40"/>
+      <c r="N62" s="40"/>
+      <c r="O62" s="40"/>
+      <c r="P62" s="40"/>
+      <c r="Q62" s="40"/>
+      <c r="R62" s="40"/>
+      <c r="S62" s="40"/>
       <c r="T62" s="40"/>
       <c r="U62" s="40"/>
       <c r="V62" s="40"/>
@@ -5429,7 +4309,7 @@
       </c>
       <c r="F63" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G63" s="38" t="s">
         <v>20</v>
@@ -5437,37 +4317,17 @@
       <c r="H63" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I63" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I63" s="40"/>
       <c r="J63" s="40"/>
-      <c r="K63" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L63" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M63" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N63" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O63" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P63" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q63" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R63" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S63" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K63" s="40"/>
+      <c r="L63" s="40"/>
+      <c r="M63" s="40"/>
+      <c r="N63" s="40"/>
+      <c r="O63" s="40"/>
+      <c r="P63" s="40"/>
+      <c r="Q63" s="40"/>
+      <c r="R63" s="40"/>
+      <c r="S63" s="40"/>
       <c r="T63" s="40"/>
       <c r="U63" s="40"/>
       <c r="V63" s="40"/>
@@ -5497,45 +4357,25 @@
       </c>
       <c r="F64" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G64" s="38" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H64" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="I64" s="39" t="s">
-        <v>21</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I64" s="40"/>
       <c r="J64" s="40"/>
-      <c r="K64" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L64" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M64" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N64" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O64" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P64" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q64" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R64" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S64" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K64" s="40"/>
+      <c r="L64" s="40"/>
+      <c r="M64" s="40"/>
+      <c r="N64" s="40"/>
+      <c r="O64" s="40"/>
+      <c r="P64" s="40"/>
+      <c r="Q64" s="40"/>
+      <c r="R64" s="40"/>
+      <c r="S64" s="40"/>
       <c r="T64" s="40"/>
       <c r="U64" s="40"/>
       <c r="V64" s="40"/>
@@ -5561,11 +4401,11 @@
       </c>
       <c r="E65" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F65" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G65" s="38" t="s">
         <v>20</v>
@@ -5573,37 +4413,17 @@
       <c r="H65" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I65" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I65" s="40"/>
       <c r="J65" s="40"/>
-      <c r="K65" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L65" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="M65" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N65" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O65" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P65" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q65" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R65" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S65" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K65" s="40"/>
+      <c r="L65" s="40"/>
+      <c r="M65" s="40"/>
+      <c r="N65" s="40"/>
+      <c r="O65" s="40"/>
+      <c r="P65" s="40"/>
+      <c r="Q65" s="40"/>
+      <c r="R65" s="40"/>
+      <c r="S65" s="40"/>
       <c r="T65" s="40"/>
       <c r="U65" s="40"/>
       <c r="V65" s="40"/>
@@ -5629,11 +4449,11 @@
       </c>
       <c r="E66" s="28">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F66" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G66" s="38" t="s">
         <v>20</v>
@@ -5641,37 +4461,17 @@
       <c r="H66" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I66" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I66" s="40"/>
       <c r="J66" s="40"/>
-      <c r="K66" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L66" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="M66" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N66" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="O66" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="P66" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q66" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R66" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S66" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K66" s="40"/>
+      <c r="L66" s="40"/>
+      <c r="M66" s="40"/>
+      <c r="N66" s="40"/>
+      <c r="O66" s="40"/>
+      <c r="P66" s="40"/>
+      <c r="Q66" s="40"/>
+      <c r="R66" s="40"/>
+      <c r="S66" s="40"/>
       <c r="T66" s="40"/>
       <c r="U66" s="40"/>
       <c r="V66" s="40"/>
@@ -5697,11 +4497,11 @@
       </c>
       <c r="E67" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F67" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G67" s="38" t="s">
         <v>20</v>
@@ -5709,37 +4509,17 @@
       <c r="H67" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I67" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I67" s="40"/>
       <c r="J67" s="40"/>
-      <c r="K67" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L67" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M67" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="N67" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O67" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="P67" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q67" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R67" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S67" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K67" s="40"/>
+      <c r="L67" s="40"/>
+      <c r="M67" s="40"/>
+      <c r="N67" s="40"/>
+      <c r="O67" s="40"/>
+      <c r="P67" s="40"/>
+      <c r="Q67" s="40"/>
+      <c r="R67" s="40"/>
+      <c r="S67" s="40"/>
       <c r="T67" s="40"/>
       <c r="U67" s="40"/>
       <c r="V67" s="40"/>
@@ -5765,11 +4545,11 @@
       </c>
       <c r="E68" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F68" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G68" s="38" t="s">
         <v>20</v>
@@ -5777,37 +4557,17 @@
       <c r="H68" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I68" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I68" s="40"/>
       <c r="J68" s="40"/>
-      <c r="K68" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L68" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M68" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N68" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O68" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P68" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q68" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="R68" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S68" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K68" s="40"/>
+      <c r="L68" s="40"/>
+      <c r="M68" s="40"/>
+      <c r="N68" s="40"/>
+      <c r="O68" s="40"/>
+      <c r="P68" s="40"/>
+      <c r="Q68" s="40"/>
+      <c r="R68" s="40"/>
+      <c r="S68" s="40"/>
       <c r="T68" s="40"/>
       <c r="U68" s="40"/>
       <c r="V68" s="40"/>
@@ -5833,11 +4593,11 @@
       </c>
       <c r="E69" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F69" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G69" s="38" t="s">
         <v>20</v>
@@ -5845,37 +4605,17 @@
       <c r="H69" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I69" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I69" s="40"/>
       <c r="J69" s="40"/>
-      <c r="K69" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L69" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M69" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="N69" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O69" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P69" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q69" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R69" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S69" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K69" s="40"/>
+      <c r="L69" s="40"/>
+      <c r="M69" s="40"/>
+      <c r="N69" s="40"/>
+      <c r="O69" s="40"/>
+      <c r="P69" s="40"/>
+      <c r="Q69" s="40"/>
+      <c r="R69" s="40"/>
+      <c r="S69" s="40"/>
       <c r="T69" s="40"/>
       <c r="U69" s="40"/>
       <c r="V69" s="40"/>
@@ -5901,49 +4641,29 @@
       </c>
       <c r="E70" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F70" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G70" s="38" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H70" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I70" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I70" s="40"/>
       <c r="J70" s="40"/>
-      <c r="K70" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L70" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M70" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N70" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O70" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="P70" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q70" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="R70" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S70" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K70" s="40"/>
+      <c r="L70" s="40"/>
+      <c r="M70" s="40"/>
+      <c r="N70" s="40"/>
+      <c r="O70" s="40"/>
+      <c r="P70" s="40"/>
+      <c r="Q70" s="40"/>
+      <c r="R70" s="40"/>
+      <c r="S70" s="40"/>
       <c r="T70" s="40"/>
       <c r="U70" s="40"/>
       <c r="V70" s="40"/>
@@ -5969,11 +4689,11 @@
       </c>
       <c r="E71" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F71" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G71" s="38" t="s">
         <v>20</v>
@@ -5981,37 +4701,17 @@
       <c r="H71" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I71" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I71" s="40"/>
       <c r="J71" s="40"/>
-      <c r="K71" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L71" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M71" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N71" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O71" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P71" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q71" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R71" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="S71" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K71" s="40"/>
+      <c r="L71" s="40"/>
+      <c r="M71" s="40"/>
+      <c r="N71" s="40"/>
+      <c r="O71" s="40"/>
+      <c r="P71" s="40"/>
+      <c r="Q71" s="40"/>
+      <c r="R71" s="40"/>
+      <c r="S71" s="40"/>
       <c r="T71" s="40"/>
       <c r="U71" s="40"/>
       <c r="V71" s="40"/>
@@ -6041,7 +4741,7 @@
       </c>
       <c r="F72" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G72" s="38" t="s">
         <v>20</v>
@@ -6049,37 +4749,17 @@
       <c r="H72" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I72" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I72" s="40"/>
       <c r="J72" s="40"/>
-      <c r="K72" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L72" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M72" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N72" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O72" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P72" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q72" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R72" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S72" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K72" s="40"/>
+      <c r="L72" s="40"/>
+      <c r="M72" s="40"/>
+      <c r="N72" s="40"/>
+      <c r="O72" s="40"/>
+      <c r="P72" s="40"/>
+      <c r="Q72" s="40"/>
+      <c r="R72" s="40"/>
+      <c r="S72" s="40"/>
       <c r="T72" s="40"/>
       <c r="U72" s="40"/>
       <c r="V72" s="40"/>
@@ -6105,11 +4785,11 @@
       </c>
       <c r="E73" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F73" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G73" s="38" t="s">
         <v>20</v>
@@ -6117,37 +4797,17 @@
       <c r="H73" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I73" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I73" s="40"/>
       <c r="J73" s="40"/>
-      <c r="K73" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L73" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M73" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N73" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O73" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P73" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q73" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R73" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="S73" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K73" s="40"/>
+      <c r="L73" s="40"/>
+      <c r="M73" s="40"/>
+      <c r="N73" s="40"/>
+      <c r="O73" s="40"/>
+      <c r="P73" s="40"/>
+      <c r="Q73" s="40"/>
+      <c r="R73" s="40"/>
+      <c r="S73" s="40"/>
       <c r="T73" s="40"/>
       <c r="U73" s="40"/>
       <c r="V73" s="40"/>
@@ -6173,49 +4833,29 @@
       </c>
       <c r="E74" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F74" s="37">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G74" s="38" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H74" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="I74" s="39" t="s">
-        <v>20</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I74" s="40"/>
       <c r="J74" s="40"/>
-      <c r="K74" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L74" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M74" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="N74" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O74" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="P74" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q74" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R74" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S74" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K74" s="40"/>
+      <c r="L74" s="40"/>
+      <c r="M74" s="40"/>
+      <c r="N74" s="40"/>
+      <c r="O74" s="40"/>
+      <c r="P74" s="40"/>
+      <c r="Q74" s="40"/>
+      <c r="R74" s="40"/>
+      <c r="S74" s="40"/>
       <c r="T74" s="40"/>
       <c r="U74" s="40"/>
       <c r="V74" s="40"/>
@@ -6241,49 +4881,29 @@
       </c>
       <c r="E75" s="28">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F75" s="37">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="F75" s="37">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
       <c r="G75" s="38" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H75" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="I75" s="39" t="s">
-        <v>21</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I75" s="40"/>
       <c r="J75" s="40"/>
-      <c r="K75" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L75" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M75" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N75" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="O75" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="P75" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q75" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R75" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S75" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K75" s="40"/>
+      <c r="L75" s="40"/>
+      <c r="M75" s="40"/>
+      <c r="N75" s="40"/>
+      <c r="O75" s="40"/>
+      <c r="P75" s="40"/>
+      <c r="Q75" s="40"/>
+      <c r="R75" s="40"/>
+      <c r="S75" s="40"/>
       <c r="T75" s="40"/>
       <c r="U75" s="40"/>
       <c r="V75" s="40"/>
@@ -6309,11 +4929,11 @@
       </c>
       <c r="E76" s="28">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F76" s="37">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G76" s="38" t="s">
         <v>20</v>
@@ -6321,37 +4941,17 @@
       <c r="H76" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I76" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I76" s="40"/>
       <c r="J76" s="40"/>
-      <c r="K76" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L76" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M76" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N76" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O76" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="P76" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q76" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R76" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="S76" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="K76" s="40"/>
+      <c r="L76" s="40"/>
+      <c r="M76" s="40"/>
+      <c r="N76" s="40"/>
+      <c r="O76" s="40"/>
+      <c r="P76" s="40"/>
+      <c r="Q76" s="40"/>
+      <c r="R76" s="40"/>
+      <c r="S76" s="40"/>
       <c r="T76" s="40"/>
       <c r="U76" s="40"/>
       <c r="V76" s="40"/>
@@ -6381,7 +4981,7 @@
       </c>
       <c r="F77" s="37">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G77" s="38" t="s">
         <v>20</v>
@@ -6389,37 +4989,17 @@
       <c r="H77" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I77" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="I77" s="40"/>
       <c r="J77" s="40"/>
-      <c r="K77" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L77" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M77" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="N77" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="O77" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="P77" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q77" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="R77" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="S77" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="K77" s="40"/>
+      <c r="L77" s="40"/>
+      <c r="M77" s="40"/>
+      <c r="N77" s="40"/>
+      <c r="O77" s="40"/>
+      <c r="P77" s="40"/>
+      <c r="Q77" s="40"/>
+      <c r="R77" s="40"/>
+      <c r="S77" s="40"/>
       <c r="T77" s="40"/>
       <c r="U77" s="40"/>
       <c r="V77" s="40"/>

--- a/attendance-files/SDM/SDM-M (EFGH) Attendance Sheet.xlsx
+++ b/attendance-files/SDM/SDM-M (EFGH) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="162">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -81,6 +81,9 @@
     <t>A</t>
   </si>
   <si>
+    <t>P</t>
+  </si>
+  <si>
     <t>2024PGP536</t>
   </si>
   <si>
@@ -103,9 +106,6 @@
   </si>
   <si>
     <t>Meet Jagdish Ramoliya</t>
-  </si>
-  <si>
-    <t>P</t>
   </si>
   <si>
     <t>2024PGP245</t>
@@ -1617,11 +1617,11 @@
       </c>
       <c r="E7" s="28">
         <f t="shared" ref="E7:E95" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F7" s="29">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>20</v>
@@ -1629,24 +1629,58 @@
       <c r="H7" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="32"/>
+      <c r="I7" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="32"/>
+      <c r="K7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="S7" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="T7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="U7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="V7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="W7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="X7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z7" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="AA7" s="33"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -1655,21 +1689,21 @@
         <v>2</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F8" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G8" s="38" t="s">
         <v>20</v>
@@ -1677,24 +1711,58 @@
       <c r="H8" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="40"/>
+      <c r="I8" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="40"/>
+      <c r="K8" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U8" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V8" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W8" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X8" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y8" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z8" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA8" s="41"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -1703,21 +1771,21 @@
         <v>3</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G9" s="38" t="s">
         <v>20</v>
@@ -1725,24 +1793,58 @@
       <c r="H9" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="40"/>
+      <c r="I9" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
+      <c r="K9" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R9" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S9" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T9" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U9" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V9" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W9" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X9" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y9" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z9" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA9" s="41"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -1751,21 +1853,21 @@
         <v>4</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F10" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G10" s="38" t="s">
         <v>20</v>
@@ -1773,24 +1875,58 @@
       <c r="H10" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="40"/>
+      <c r="I10" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="40"/>
+      <c r="K10" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T10" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U10" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V10" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W10" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X10" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y10" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z10" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA10" s="41"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -1799,46 +1935,80 @@
         <v>5</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="40"/>
-      <c r="W11" s="40"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="40"/>
+      <c r="K11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V11" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W11" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="X11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z11" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA11" s="41"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -1857,11 +2027,11 @@
       </c>
       <c r="E12" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G12" s="38" t="s">
         <v>20</v>
@@ -1869,24 +2039,58 @@
       <c r="H12" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="40"/>
+      <c r="I12" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="40"/>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="40"/>
-      <c r="Z12" s="40"/>
+      <c r="K12" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T12" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U12" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V12" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W12" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="X12" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y12" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z12" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA12" s="41"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -1905,36 +2109,70 @@
       </c>
       <c r="E13" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F13" s="37">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G13" s="38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H13" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="40"/>
+      <c r="K13" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R13" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S13" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T13" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U13" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V13" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W13" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X13" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y13" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z13" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA13" s="41"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -1953,11 +2191,11 @@
       </c>
       <c r="E14" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F14" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G14" s="38" t="s">
         <v>20</v>
@@ -1965,24 +2203,58 @@
       <c r="H14" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="40"/>
+      <c r="I14" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="40"/>
+      <c r="K14" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V14" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z14" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA14" s="41"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
@@ -2001,11 +2273,11 @@
       </c>
       <c r="E15" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G15" s="38" t="s">
         <v>20</v>
@@ -2013,24 +2285,58 @@
       <c r="H15" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="40"/>
+      <c r="I15" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
+      <c r="K15" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R15" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S15" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T15" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U15" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V15" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W15" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X15" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y15" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z15" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA15" s="41"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -2049,36 +2355,70 @@
       </c>
       <c r="E16" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F16" s="37">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H16" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="40"/>
+      <c r="I16" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="40"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="40"/>
+      <c r="K16" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P16" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q16" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R16" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S16" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T16" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U16" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V16" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W16" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X16" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y16" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z16" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA16" s="41"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
@@ -2097,11 +2437,11 @@
       </c>
       <c r="E17" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F17" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G17" s="38" t="s">
         <v>20</v>
@@ -2109,24 +2449,58 @@
       <c r="H17" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="40"/>
+      <c r="I17" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="40"/>
+      <c r="K17" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P17" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S17" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T17" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U17" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V17" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W17" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X17" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y17" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z17" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA17" s="41"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
@@ -2145,11 +2519,11 @@
       </c>
       <c r="E18" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G18" s="38" t="s">
         <v>20</v>
@@ -2157,24 +2531,58 @@
       <c r="H18" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="40"/>
+      <c r="I18" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
-      <c r="U18" s="40"/>
-      <c r="V18" s="40"/>
-      <c r="W18" s="40"/>
-      <c r="X18" s="40"/>
-      <c r="Y18" s="40"/>
-      <c r="Z18" s="40"/>
+      <c r="K18" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T18" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U18" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V18" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W18" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="X18" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y18" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z18" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA18" s="41"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
@@ -2193,36 +2601,70 @@
       </c>
       <c r="E19" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F19" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G19" s="38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H19" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="40"/>
-      <c r="W19" s="40"/>
-      <c r="X19" s="40"/>
-      <c r="Y19" s="40"/>
-      <c r="Z19" s="40"/>
+      <c r="K19" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q19" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R19" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S19" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T19" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U19" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V19" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W19" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X19" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y19" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z19" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA19" s="41"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
@@ -2241,36 +2683,70 @@
       </c>
       <c r="E20" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F20" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G20" s="38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H20" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="40"/>
-      <c r="X20" s="40"/>
-      <c r="Y20" s="40"/>
-      <c r="Z20" s="40"/>
+      <c r="K20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X20" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y20" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z20" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA20" s="41"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -2289,36 +2765,70 @@
       </c>
       <c r="E21" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F21" s="37">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H21" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I21" s="40"/>
+      <c r="I21" s="31" t="s">
+        <v>21</v>
+      </c>
       <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="40"/>
-      <c r="X21" s="40"/>
-      <c r="Y21" s="40"/>
-      <c r="Z21" s="40"/>
+      <c r="K21" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P21" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R21" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S21" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T21" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U21" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V21" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W21" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X21" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y21" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z21" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA21" s="41"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -2337,36 +2847,70 @@
       </c>
       <c r="E22" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F22" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H22" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="I22" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="40"/>
-      <c r="Y22" s="40"/>
-      <c r="Z22" s="40"/>
+      <c r="K22" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P22" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q22" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R22" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S22" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T22" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U22" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V22" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W22" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X22" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y22" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z22" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA22" s="41"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -2385,36 +2929,70 @@
       </c>
       <c r="E23" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F23" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G23" s="38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H23" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="I23" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="I23" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="40"/>
-      <c r="W23" s="40"/>
-      <c r="X23" s="40"/>
-      <c r="Y23" s="40"/>
-      <c r="Z23" s="40"/>
+      <c r="K23" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P23" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q23" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R23" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S23" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T23" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U23" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V23" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W23" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="X23" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y23" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z23" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA23" s="41"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -2433,36 +3011,70 @@
       </c>
       <c r="E24" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F24" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H24" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="I24" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="40"/>
-      <c r="X24" s="40"/>
-      <c r="Y24" s="40"/>
-      <c r="Z24" s="40"/>
+      <c r="K24" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R24" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S24" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T24" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U24" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V24" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W24" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X24" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y24" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z24" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA24" s="41"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -2481,36 +3093,70 @@
       </c>
       <c r="E25" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F25" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G25" s="38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H25" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="I25" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="I25" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="40"/>
-      <c r="X25" s="40"/>
-      <c r="Y25" s="40"/>
-      <c r="Z25" s="40"/>
+      <c r="K25" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q25" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R25" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S25" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T25" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U25" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V25" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W25" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X25" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y25" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z25" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA25" s="41"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -2529,11 +3175,11 @@
       </c>
       <c r="E26" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F26" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G26" s="38" t="s">
         <v>20</v>
@@ -2541,24 +3187,58 @@
       <c r="H26" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="40"/>
+      <c r="I26" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="40"/>
-      <c r="Y26" s="40"/>
-      <c r="Z26" s="40"/>
+      <c r="K26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U26" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V26" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z26" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA26" s="41"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -2577,36 +3257,70 @@
       </c>
       <c r="E27" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F27" s="37">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G27" s="38" t="s">
         <v>20</v>
       </c>
       <c r="H27" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="I27" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="40"/>
-      <c r="W27" s="40"/>
-      <c r="X27" s="40"/>
-      <c r="Y27" s="40"/>
-      <c r="Z27" s="40"/>
+      <c r="K27" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z27" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA27" s="41"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -2625,11 +3339,11 @@
       </c>
       <c r="E28" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G28" s="38" t="s">
         <v>20</v>
@@ -2637,24 +3351,58 @@
       <c r="H28" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="40"/>
+      <c r="I28" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="40"/>
-      <c r="V28" s="40"/>
-      <c r="W28" s="40"/>
-      <c r="X28" s="40"/>
-      <c r="Y28" s="40"/>
-      <c r="Z28" s="40"/>
+      <c r="K28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y28" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z28" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA28" s="41"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -2673,11 +3421,11 @@
       </c>
       <c r="E29" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G29" s="38" t="s">
         <v>20</v>
@@ -2685,24 +3433,58 @@
       <c r="H29" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="40"/>
+      <c r="I29" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="40"/>
-      <c r="T29" s="40"/>
-      <c r="U29" s="40"/>
-      <c r="V29" s="40"/>
-      <c r="W29" s="40"/>
-      <c r="X29" s="40"/>
-      <c r="Y29" s="40"/>
-      <c r="Z29" s="40"/>
+      <c r="K29" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N29" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O29" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P29" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q29" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R29" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S29" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T29" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U29" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V29" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W29" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X29" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y29" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z29" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA29" s="41"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -2725,32 +3507,66 @@
       </c>
       <c r="F30" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G30" s="38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H30" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="I30" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="I30" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="40"/>
-      <c r="T30" s="40"/>
-      <c r="U30" s="40"/>
-      <c r="V30" s="40"/>
-      <c r="W30" s="40"/>
-      <c r="X30" s="40"/>
-      <c r="Y30" s="40"/>
-      <c r="Z30" s="40"/>
+      <c r="K30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y30" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z30" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA30" s="41"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -2769,11 +3585,11 @@
       </c>
       <c r="E31" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F31" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G31" s="38" t="s">
         <v>20</v>
@@ -2781,24 +3597,58 @@
       <c r="H31" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I31" s="40"/>
+      <c r="I31" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="40"/>
-      <c r="S31" s="40"/>
-      <c r="T31" s="40"/>
-      <c r="U31" s="40"/>
-      <c r="V31" s="40"/>
-      <c r="W31" s="40"/>
-      <c r="X31" s="40"/>
-      <c r="Y31" s="40"/>
-      <c r="Z31" s="40"/>
+      <c r="K31" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N31" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O31" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P31" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q31" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R31" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S31" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T31" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U31" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V31" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W31" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="X31" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y31" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z31" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA31" s="41"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -2817,11 +3667,11 @@
       </c>
       <c r="E32" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F32" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G32" s="38" t="s">
         <v>20</v>
@@ -2829,24 +3679,58 @@
       <c r="H32" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I32" s="40"/>
+      <c r="I32" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="40"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="40"/>
-      <c r="W32" s="40"/>
-      <c r="X32" s="40"/>
-      <c r="Y32" s="40"/>
-      <c r="Z32" s="40"/>
+      <c r="K32" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N32" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O32" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P32" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q32" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R32" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S32" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T32" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U32" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V32" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W32" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X32" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y32" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z32" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA32" s="41"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -2865,11 +3749,11 @@
       </c>
       <c r="E33" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F33" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G33" s="38" t="s">
         <v>20</v>
@@ -2877,24 +3761,58 @@
       <c r="H33" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I33" s="40"/>
+      <c r="I33" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="40"/>
-      <c r="T33" s="40"/>
-      <c r="U33" s="40"/>
-      <c r="V33" s="40"/>
-      <c r="W33" s="40"/>
-      <c r="X33" s="40"/>
-      <c r="Y33" s="40"/>
-      <c r="Z33" s="40"/>
+      <c r="K33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y33" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z33" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA33" s="41"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -2913,11 +3831,11 @@
       </c>
       <c r="E34" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F34" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G34" s="38" t="s">
         <v>20</v>
@@ -2925,24 +3843,58 @@
       <c r="H34" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I34" s="40"/>
+      <c r="I34" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="40"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="40"/>
-      <c r="T34" s="40"/>
-      <c r="U34" s="40"/>
-      <c r="V34" s="40"/>
-      <c r="W34" s="40"/>
-      <c r="X34" s="40"/>
-      <c r="Y34" s="40"/>
-      <c r="Z34" s="40"/>
+      <c r="K34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P34" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U34" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y34" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z34" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA34" s="41"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -2961,11 +3913,11 @@
       </c>
       <c r="E35" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F35" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G35" s="38" t="s">
         <v>20</v>
@@ -2973,24 +3925,58 @@
       <c r="H35" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="40"/>
+      <c r="I35" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="40"/>
-      <c r="S35" s="40"/>
-      <c r="T35" s="40"/>
-      <c r="U35" s="40"/>
-      <c r="V35" s="40"/>
-      <c r="W35" s="40"/>
-      <c r="X35" s="40"/>
-      <c r="Y35" s="40"/>
-      <c r="Z35" s="40"/>
+      <c r="K35" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N35" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O35" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P35" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q35" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R35" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S35" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T35" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U35" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V35" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W35" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X35" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y35" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z35" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA35" s="41"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -3009,11 +3995,11 @@
       </c>
       <c r="E36" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F36" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G36" s="38" t="s">
         <v>20</v>
@@ -3021,24 +4007,58 @@
       <c r="H36" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I36" s="40"/>
+      <c r="I36" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J36" s="40"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="40"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="40"/>
-      <c r="S36" s="40"/>
-      <c r="T36" s="40"/>
-      <c r="U36" s="40"/>
-      <c r="V36" s="40"/>
-      <c r="W36" s="40"/>
-      <c r="X36" s="40"/>
-      <c r="Y36" s="40"/>
-      <c r="Z36" s="40"/>
+      <c r="K36" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M36" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N36" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O36" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P36" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q36" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R36" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S36" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T36" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U36" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V36" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W36" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X36" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y36" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z36" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA36" s="41"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -3057,11 +4077,11 @@
       </c>
       <c r="E37" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F37" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G37" s="38" t="s">
         <v>20</v>
@@ -3069,24 +4089,58 @@
       <c r="H37" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I37" s="40"/>
+      <c r="I37" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="40"/>
-      <c r="S37" s="40"/>
-      <c r="T37" s="40"/>
-      <c r="U37" s="40"/>
-      <c r="V37" s="40"/>
-      <c r="W37" s="40"/>
-      <c r="X37" s="40"/>
-      <c r="Y37" s="40"/>
-      <c r="Z37" s="40"/>
+      <c r="K37" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N37" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O37" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P37" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R37" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S37" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T37" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U37" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V37" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W37" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X37" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y37" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z37" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA37" s="41"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -3105,11 +4159,11 @@
       </c>
       <c r="E38" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F38" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G38" s="38" t="s">
         <v>20</v>
@@ -3117,24 +4171,58 @@
       <c r="H38" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I38" s="40"/>
+      <c r="I38" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="40"/>
-      <c r="S38" s="40"/>
-      <c r="T38" s="40"/>
-      <c r="U38" s="40"/>
-      <c r="V38" s="40"/>
-      <c r="W38" s="40"/>
-      <c r="X38" s="40"/>
-      <c r="Y38" s="40"/>
-      <c r="Z38" s="40"/>
+      <c r="K38" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N38" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O38" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P38" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q38" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R38" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S38" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T38" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U38" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V38" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W38" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X38" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y38" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z38" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA38" s="41"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -3153,36 +4241,70 @@
       </c>
       <c r="E39" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F39" s="37">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G39" s="38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H39" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I39" s="40"/>
+      <c r="I39" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="40"/>
-      <c r="S39" s="40"/>
-      <c r="T39" s="40"/>
-      <c r="U39" s="40"/>
-      <c r="V39" s="40"/>
-      <c r="W39" s="40"/>
-      <c r="X39" s="40"/>
-      <c r="Y39" s="40"/>
-      <c r="Z39" s="40"/>
+      <c r="K39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N39" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S39" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T39" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y39" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z39" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA39" s="41"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -3201,11 +4323,11 @@
       </c>
       <c r="E40" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F40" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G40" s="38" t="s">
         <v>20</v>
@@ -3213,24 +4335,58 @@
       <c r="H40" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I40" s="40"/>
+      <c r="I40" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="40"/>
-      <c r="S40" s="40"/>
-      <c r="T40" s="40"/>
-      <c r="U40" s="40"/>
-      <c r="V40" s="40"/>
-      <c r="W40" s="40"/>
-      <c r="X40" s="40"/>
-      <c r="Y40" s="40"/>
-      <c r="Z40" s="40"/>
+      <c r="K40" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L40" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M40" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N40" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O40" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P40" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q40" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R40" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S40" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T40" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U40" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V40" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W40" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X40" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y40" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z40" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA40" s="41"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -3249,36 +4405,70 @@
       </c>
       <c r="E41" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F41" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G41" s="38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H41" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="I41" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="I41" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="40"/>
-      <c r="S41" s="40"/>
-      <c r="T41" s="40"/>
-      <c r="U41" s="40"/>
-      <c r="V41" s="40"/>
-      <c r="W41" s="40"/>
-      <c r="X41" s="40"/>
-      <c r="Y41" s="40"/>
-      <c r="Z41" s="40"/>
+      <c r="K41" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L41" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M41" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N41" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O41" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P41" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q41" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R41" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S41" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T41" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U41" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V41" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W41" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X41" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y41" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z41" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA41" s="41"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -3297,11 +4487,11 @@
       </c>
       <c r="E42" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F42" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G42" s="38" t="s">
         <v>20</v>
@@ -3309,24 +4499,58 @@
       <c r="H42" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="40"/>
+      <c r="I42" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="40"/>
-      <c r="N42" s="40"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="40"/>
-      <c r="S42" s="40"/>
-      <c r="T42" s="40"/>
-      <c r="U42" s="40"/>
-      <c r="V42" s="40"/>
-      <c r="W42" s="40"/>
-      <c r="X42" s="40"/>
-      <c r="Y42" s="40"/>
-      <c r="Z42" s="40"/>
+      <c r="K42" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M42" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N42" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O42" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P42" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q42" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R42" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S42" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T42" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U42" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V42" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W42" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X42" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y42" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z42" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA42" s="41"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -3345,11 +4569,11 @@
       </c>
       <c r="E43" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F43" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G43" s="38" t="s">
         <v>20</v>
@@ -3357,24 +4581,58 @@
       <c r="H43" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="40"/>
+      <c r="I43" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J43" s="40"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="40"/>
-      <c r="M43" s="40"/>
-      <c r="N43" s="40"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="40"/>
-      <c r="S43" s="40"/>
-      <c r="T43" s="40"/>
-      <c r="U43" s="40"/>
-      <c r="V43" s="40"/>
-      <c r="W43" s="40"/>
-      <c r="X43" s="40"/>
-      <c r="Y43" s="40"/>
-      <c r="Z43" s="40"/>
+      <c r="K43" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L43" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M43" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N43" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O43" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P43" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q43" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R43" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S43" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T43" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U43" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V43" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W43" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X43" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y43" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z43" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA43" s="41"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -3393,11 +4651,11 @@
       </c>
       <c r="E44" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F44" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G44" s="38" t="s">
         <v>20</v>
@@ -3405,24 +4663,58 @@
       <c r="H44" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I44" s="40"/>
+      <c r="I44" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J44" s="40"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="40"/>
-      <c r="N44" s="40"/>
-      <c r="O44" s="40"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="40"/>
-      <c r="S44" s="40"/>
-      <c r="T44" s="40"/>
-      <c r="U44" s="40"/>
-      <c r="V44" s="40"/>
-      <c r="W44" s="40"/>
-      <c r="X44" s="40"/>
-      <c r="Y44" s="40"/>
-      <c r="Z44" s="40"/>
+      <c r="K44" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M44" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N44" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O44" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P44" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q44" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R44" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S44" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T44" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U44" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V44" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W44" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="X44" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y44" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z44" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA44" s="41"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -3441,11 +4733,11 @@
       </c>
       <c r="E45" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F45" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G45" s="38" t="s">
         <v>20</v>
@@ -3453,24 +4745,58 @@
       <c r="H45" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I45" s="40"/>
+      <c r="I45" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J45" s="40"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="40"/>
-      <c r="N45" s="40"/>
-      <c r="O45" s="40"/>
-      <c r="P45" s="40"/>
-      <c r="Q45" s="40"/>
-      <c r="R45" s="40"/>
-      <c r="S45" s="40"/>
-      <c r="T45" s="40"/>
-      <c r="U45" s="40"/>
-      <c r="V45" s="40"/>
-      <c r="W45" s="40"/>
-      <c r="X45" s="40"/>
-      <c r="Y45" s="40"/>
-      <c r="Z45" s="40"/>
+      <c r="K45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V45" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y45" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z45" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA45" s="41"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -3489,11 +4815,11 @@
       </c>
       <c r="E46" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F46" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G46" s="38" t="s">
         <v>20</v>
@@ -3501,24 +4827,58 @@
       <c r="H46" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I46" s="40"/>
+      <c r="I46" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J46" s="40"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="40"/>
-      <c r="N46" s="40"/>
-      <c r="O46" s="40"/>
-      <c r="P46" s="40"/>
-      <c r="Q46" s="40"/>
-      <c r="R46" s="40"/>
-      <c r="S46" s="40"/>
-      <c r="T46" s="40"/>
-      <c r="U46" s="40"/>
-      <c r="V46" s="40"/>
-      <c r="W46" s="40"/>
-      <c r="X46" s="40"/>
-      <c r="Y46" s="40"/>
-      <c r="Z46" s="40"/>
+      <c r="K46" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L46" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M46" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N46" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O46" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P46" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q46" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R46" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S46" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T46" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U46" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V46" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W46" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X46" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y46" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z46" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA46" s="41"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -3537,36 +4897,70 @@
       </c>
       <c r="E47" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F47" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G47" s="38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H47" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="I47" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="I47" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J47" s="40"/>
-      <c r="K47" s="40"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="40"/>
-      <c r="N47" s="40"/>
-      <c r="O47" s="40"/>
-      <c r="P47" s="40"/>
-      <c r="Q47" s="40"/>
-      <c r="R47" s="40"/>
-      <c r="S47" s="40"/>
-      <c r="T47" s="40"/>
-      <c r="U47" s="40"/>
-      <c r="V47" s="40"/>
-      <c r="W47" s="40"/>
-      <c r="X47" s="40"/>
-      <c r="Y47" s="40"/>
-      <c r="Z47" s="40"/>
+      <c r="K47" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M47" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N47" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O47" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P47" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q47" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R47" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S47" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T47" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U47" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V47" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W47" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X47" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y47" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z47" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA47" s="41"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -3585,11 +4979,11 @@
       </c>
       <c r="E48" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F48" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G48" s="38" t="s">
         <v>20</v>
@@ -3597,24 +4991,58 @@
       <c r="H48" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I48" s="40"/>
+      <c r="I48" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J48" s="40"/>
-      <c r="K48" s="40"/>
-      <c r="L48" s="40"/>
-      <c r="M48" s="40"/>
-      <c r="N48" s="40"/>
-      <c r="O48" s="40"/>
-      <c r="P48" s="40"/>
-      <c r="Q48" s="40"/>
-      <c r="R48" s="40"/>
-      <c r="S48" s="40"/>
-      <c r="T48" s="40"/>
-      <c r="U48" s="40"/>
-      <c r="V48" s="40"/>
-      <c r="W48" s="40"/>
-      <c r="X48" s="40"/>
-      <c r="Y48" s="40"/>
-      <c r="Z48" s="40"/>
+      <c r="K48" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M48" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N48" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O48" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P48" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q48" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R48" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S48" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T48" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U48" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V48" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W48" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X48" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y48" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z48" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA48" s="41"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
@@ -3633,11 +5061,11 @@
       </c>
       <c r="E49" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F49" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G49" s="38" t="s">
         <v>20</v>
@@ -3645,24 +5073,58 @@
       <c r="H49" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I49" s="40"/>
+      <c r="I49" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J49" s="40"/>
-      <c r="K49" s="40"/>
-      <c r="L49" s="40"/>
-      <c r="M49" s="40"/>
-      <c r="N49" s="40"/>
-      <c r="O49" s="40"/>
-      <c r="P49" s="40"/>
-      <c r="Q49" s="40"/>
-      <c r="R49" s="40"/>
-      <c r="S49" s="40"/>
-      <c r="T49" s="40"/>
-      <c r="U49" s="40"/>
-      <c r="V49" s="40"/>
-      <c r="W49" s="40"/>
-      <c r="X49" s="40"/>
-      <c r="Y49" s="40"/>
-      <c r="Z49" s="40"/>
+      <c r="K49" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L49" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M49" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N49" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O49" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P49" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q49" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R49" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S49" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T49" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U49" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V49" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W49" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X49" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y49" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z49" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA49" s="41"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -3681,11 +5143,11 @@
       </c>
       <c r="E50" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F50" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G50" s="38" t="s">
         <v>20</v>
@@ -3693,24 +5155,58 @@
       <c r="H50" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I50" s="40"/>
+      <c r="I50" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J50" s="40"/>
-      <c r="K50" s="40"/>
-      <c r="L50" s="40"/>
-      <c r="M50" s="40"/>
-      <c r="N50" s="40"/>
-      <c r="O50" s="40"/>
-      <c r="P50" s="40"/>
-      <c r="Q50" s="40"/>
-      <c r="R50" s="40"/>
-      <c r="S50" s="40"/>
-      <c r="T50" s="40"/>
-      <c r="U50" s="40"/>
-      <c r="V50" s="40"/>
-      <c r="W50" s="40"/>
-      <c r="X50" s="40"/>
-      <c r="Y50" s="40"/>
-      <c r="Z50" s="40"/>
+      <c r="K50" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L50" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M50" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N50" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O50" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P50" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q50" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R50" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S50" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T50" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U50" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V50" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W50" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X50" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y50" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z50" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA50" s="41"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
@@ -3733,32 +5229,66 @@
       </c>
       <c r="F51" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G51" s="38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H51" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="I51" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="I51" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J51" s="40"/>
-      <c r="K51" s="40"/>
-      <c r="L51" s="40"/>
-      <c r="M51" s="40"/>
-      <c r="N51" s="40"/>
-      <c r="O51" s="40"/>
-      <c r="P51" s="40"/>
-      <c r="Q51" s="40"/>
-      <c r="R51" s="40"/>
-      <c r="S51" s="40"/>
-      <c r="T51" s="40"/>
-      <c r="U51" s="40"/>
-      <c r="V51" s="40"/>
-      <c r="W51" s="40"/>
-      <c r="X51" s="40"/>
-      <c r="Y51" s="40"/>
-      <c r="Z51" s="40"/>
+      <c r="K51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y51" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z51" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA51" s="41"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
@@ -3777,11 +5307,11 @@
       </c>
       <c r="E52" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F52" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G52" s="38" t="s">
         <v>20</v>
@@ -3789,24 +5319,58 @@
       <c r="H52" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I52" s="40"/>
+      <c r="I52" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J52" s="40"/>
-      <c r="K52" s="40"/>
-      <c r="L52" s="40"/>
-      <c r="M52" s="40"/>
-      <c r="N52" s="40"/>
-      <c r="O52" s="40"/>
-      <c r="P52" s="40"/>
-      <c r="Q52" s="40"/>
-      <c r="R52" s="40"/>
-      <c r="S52" s="40"/>
-      <c r="T52" s="40"/>
-      <c r="U52" s="40"/>
-      <c r="V52" s="40"/>
-      <c r="W52" s="40"/>
-      <c r="X52" s="40"/>
-      <c r="Y52" s="40"/>
-      <c r="Z52" s="40"/>
+      <c r="K52" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L52" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M52" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N52" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O52" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P52" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q52" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R52" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S52" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T52" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U52" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V52" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W52" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X52" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y52" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z52" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA52" s="41"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
@@ -3825,36 +5389,70 @@
       </c>
       <c r="E53" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F53" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G53" s="38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H53" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="I53" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="I53" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J53" s="40"/>
-      <c r="K53" s="40"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="40"/>
-      <c r="N53" s="40"/>
-      <c r="O53" s="40"/>
-      <c r="P53" s="40"/>
-      <c r="Q53" s="40"/>
-      <c r="R53" s="40"/>
-      <c r="S53" s="40"/>
-      <c r="T53" s="40"/>
-      <c r="U53" s="40"/>
-      <c r="V53" s="40"/>
-      <c r="W53" s="40"/>
-      <c r="X53" s="40"/>
-      <c r="Y53" s="40"/>
-      <c r="Z53" s="40"/>
+      <c r="K53" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L53" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M53" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N53" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O53" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P53" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q53" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R53" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S53" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T53" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U53" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V53" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W53" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X53" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y53" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z53" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA53" s="41"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -3873,11 +5471,11 @@
       </c>
       <c r="E54" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F54" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G54" s="38" t="s">
         <v>20</v>
@@ -3885,24 +5483,58 @@
       <c r="H54" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I54" s="40"/>
+      <c r="I54" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J54" s="40"/>
-      <c r="K54" s="40"/>
-      <c r="L54" s="40"/>
-      <c r="M54" s="40"/>
-      <c r="N54" s="40"/>
-      <c r="O54" s="40"/>
-      <c r="P54" s="40"/>
-      <c r="Q54" s="40"/>
-      <c r="R54" s="40"/>
-      <c r="S54" s="40"/>
-      <c r="T54" s="40"/>
-      <c r="U54" s="40"/>
-      <c r="V54" s="40"/>
-      <c r="W54" s="40"/>
-      <c r="X54" s="40"/>
-      <c r="Y54" s="40"/>
-      <c r="Z54" s="40"/>
+      <c r="K54" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L54" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M54" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N54" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O54" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P54" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q54" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R54" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S54" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T54" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U54" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V54" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W54" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X54" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y54" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z54" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA54" s="41"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -3921,36 +5553,70 @@
       </c>
       <c r="E55" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F55" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G55" s="38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H55" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="I55" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="I55" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J55" s="40"/>
-      <c r="K55" s="40"/>
-      <c r="L55" s="40"/>
-      <c r="M55" s="40"/>
-      <c r="N55" s="40"/>
-      <c r="O55" s="40"/>
-      <c r="P55" s="40"/>
-      <c r="Q55" s="40"/>
-      <c r="R55" s="40"/>
-      <c r="S55" s="40"/>
-      <c r="T55" s="40"/>
-      <c r="U55" s="40"/>
-      <c r="V55" s="40"/>
-      <c r="W55" s="40"/>
-      <c r="X55" s="40"/>
-      <c r="Y55" s="40"/>
-      <c r="Z55" s="40"/>
+      <c r="K55" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L55" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M55" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N55" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O55" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P55" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q55" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R55" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S55" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T55" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U55" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V55" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W55" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X55" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y55" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z55" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA55" s="41"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
@@ -3969,11 +5635,11 @@
       </c>
       <c r="E56" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F56" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G56" s="38" t="s">
         <v>20</v>
@@ -3981,24 +5647,58 @@
       <c r="H56" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I56" s="40"/>
+      <c r="I56" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J56" s="40"/>
-      <c r="K56" s="40"/>
-      <c r="L56" s="40"/>
-      <c r="M56" s="40"/>
-      <c r="N56" s="40"/>
-      <c r="O56" s="40"/>
-      <c r="P56" s="40"/>
-      <c r="Q56" s="40"/>
-      <c r="R56" s="40"/>
-      <c r="S56" s="40"/>
-      <c r="T56" s="40"/>
-      <c r="U56" s="40"/>
-      <c r="V56" s="40"/>
-      <c r="W56" s="40"/>
-      <c r="X56" s="40"/>
-      <c r="Y56" s="40"/>
-      <c r="Z56" s="40"/>
+      <c r="K56" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L56" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M56" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N56" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O56" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P56" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q56" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R56" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S56" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T56" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U56" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V56" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W56" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X56" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y56" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z56" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA56" s="41"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -4017,36 +5717,70 @@
       </c>
       <c r="E57" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F57" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G57" s="38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H57" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="I57" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="I57" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J57" s="40"/>
-      <c r="K57" s="40"/>
-      <c r="L57" s="40"/>
-      <c r="M57" s="40"/>
-      <c r="N57" s="40"/>
-      <c r="O57" s="40"/>
-      <c r="P57" s="40"/>
-      <c r="Q57" s="40"/>
-      <c r="R57" s="40"/>
-      <c r="S57" s="40"/>
-      <c r="T57" s="40"/>
-      <c r="U57" s="40"/>
-      <c r="V57" s="40"/>
-      <c r="W57" s="40"/>
-      <c r="X57" s="40"/>
-      <c r="Y57" s="40"/>
-      <c r="Z57" s="40"/>
+      <c r="K57" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L57" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M57" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N57" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O57" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P57" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q57" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R57" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S57" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T57" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U57" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V57" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W57" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X57" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y57" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z57" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA57" s="41"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -4065,36 +5799,70 @@
       </c>
       <c r="E58" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F58" s="37">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G58" s="38" t="s">
         <v>20</v>
       </c>
       <c r="H58" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="I58" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="I58" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="J58" s="40"/>
-      <c r="K58" s="40"/>
-      <c r="L58" s="40"/>
-      <c r="M58" s="40"/>
-      <c r="N58" s="40"/>
-      <c r="O58" s="40"/>
-      <c r="P58" s="40"/>
-      <c r="Q58" s="40"/>
-      <c r="R58" s="40"/>
-      <c r="S58" s="40"/>
-      <c r="T58" s="40"/>
-      <c r="U58" s="40"/>
-      <c r="V58" s="40"/>
-      <c r="W58" s="40"/>
-      <c r="X58" s="40"/>
-      <c r="Y58" s="40"/>
-      <c r="Z58" s="40"/>
+      <c r="K58" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L58" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M58" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N58" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O58" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P58" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q58" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R58" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S58" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T58" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U58" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V58" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W58" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X58" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y58" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z58" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA58" s="41"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
@@ -4113,11 +5881,11 @@
       </c>
       <c r="E59" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F59" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G59" s="38" t="s">
         <v>20</v>
@@ -4125,24 +5893,58 @@
       <c r="H59" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I59" s="40"/>
+      <c r="I59" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J59" s="40"/>
-      <c r="K59" s="40"/>
-      <c r="L59" s="40"/>
-      <c r="M59" s="40"/>
-      <c r="N59" s="40"/>
-      <c r="O59" s="40"/>
-      <c r="P59" s="40"/>
-      <c r="Q59" s="40"/>
-      <c r="R59" s="40"/>
-      <c r="S59" s="40"/>
-      <c r="T59" s="40"/>
-      <c r="U59" s="40"/>
-      <c r="V59" s="40"/>
-      <c r="W59" s="40"/>
-      <c r="X59" s="40"/>
-      <c r="Y59" s="40"/>
-      <c r="Z59" s="40"/>
+      <c r="K59" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L59" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M59" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N59" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O59" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P59" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q59" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R59" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S59" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T59" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U59" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V59" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W59" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X59" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y59" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z59" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA59" s="41"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
@@ -4161,11 +5963,11 @@
       </c>
       <c r="E60" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F60" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G60" s="38" t="s">
         <v>20</v>
@@ -4173,24 +5975,58 @@
       <c r="H60" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I60" s="40"/>
+      <c r="I60" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J60" s="40"/>
-      <c r="K60" s="40"/>
-      <c r="L60" s="40"/>
-      <c r="M60" s="40"/>
-      <c r="N60" s="40"/>
-      <c r="O60" s="40"/>
-      <c r="P60" s="40"/>
-      <c r="Q60" s="40"/>
-      <c r="R60" s="40"/>
-      <c r="S60" s="40"/>
-      <c r="T60" s="40"/>
-      <c r="U60" s="40"/>
-      <c r="V60" s="40"/>
-      <c r="W60" s="40"/>
-      <c r="X60" s="40"/>
-      <c r="Y60" s="40"/>
-      <c r="Z60" s="40"/>
+      <c r="K60" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L60" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M60" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N60" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O60" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P60" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q60" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R60" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S60" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T60" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U60" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V60" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W60" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="X60" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y60" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z60" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA60" s="41"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
@@ -4209,7 +6045,7 @@
       </c>
       <c r="E61" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F61" s="37">
         <f t="shared" si="2"/>
@@ -4221,24 +6057,58 @@
       <c r="H61" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I61" s="40"/>
+      <c r="I61" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="J61" s="40"/>
-      <c r="K61" s="40"/>
-      <c r="L61" s="40"/>
-      <c r="M61" s="40"/>
-      <c r="N61" s="40"/>
-      <c r="O61" s="40"/>
-      <c r="P61" s="40"/>
-      <c r="Q61" s="40"/>
-      <c r="R61" s="40"/>
-      <c r="S61" s="40"/>
-      <c r="T61" s="40"/>
-      <c r="U61" s="40"/>
-      <c r="V61" s="40"/>
-      <c r="W61" s="40"/>
-      <c r="X61" s="40"/>
-      <c r="Y61" s="40"/>
-      <c r="Z61" s="40"/>
+      <c r="K61" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L61" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M61" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N61" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O61" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P61" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q61" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R61" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S61" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T61" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="U61" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V61" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W61" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="X61" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y61" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z61" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA61" s="41"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
@@ -4257,11 +6127,11 @@
       </c>
       <c r="E62" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F62" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G62" s="38" t="s">
         <v>20</v>
@@ -4269,24 +6139,58 @@
       <c r="H62" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I62" s="40"/>
+      <c r="I62" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J62" s="40"/>
-      <c r="K62" s="40"/>
-      <c r="L62" s="40"/>
-      <c r="M62" s="40"/>
-      <c r="N62" s="40"/>
-      <c r="O62" s="40"/>
-      <c r="P62" s="40"/>
-      <c r="Q62" s="40"/>
-      <c r="R62" s="40"/>
-      <c r="S62" s="40"/>
-      <c r="T62" s="40"/>
-      <c r="U62" s="40"/>
-      <c r="V62" s="40"/>
-      <c r="W62" s="40"/>
-      <c r="X62" s="40"/>
-      <c r="Y62" s="40"/>
-      <c r="Z62" s="40"/>
+      <c r="K62" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L62" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M62" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N62" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O62" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P62" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q62" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R62" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S62" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T62" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U62" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V62" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W62" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X62" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y62" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z62" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA62" s="41"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
@@ -4309,7 +6213,7 @@
       </c>
       <c r="F63" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G63" s="38" t="s">
         <v>20</v>
@@ -4317,24 +6221,58 @@
       <c r="H63" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I63" s="40"/>
+      <c r="I63" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J63" s="40"/>
-      <c r="K63" s="40"/>
-      <c r="L63" s="40"/>
-      <c r="M63" s="40"/>
-      <c r="N63" s="40"/>
-      <c r="O63" s="40"/>
-      <c r="P63" s="40"/>
-      <c r="Q63" s="40"/>
-      <c r="R63" s="40"/>
-      <c r="S63" s="40"/>
-      <c r="T63" s="40"/>
-      <c r="U63" s="40"/>
-      <c r="V63" s="40"/>
-      <c r="W63" s="40"/>
-      <c r="X63" s="40"/>
-      <c r="Y63" s="40"/>
-      <c r="Z63" s="40"/>
+      <c r="K63" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L63" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M63" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N63" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O63" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P63" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q63" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R63" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S63" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T63" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U63" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V63" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W63" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X63" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y63" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z63" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA63" s="41"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
@@ -4357,32 +6295,66 @@
       </c>
       <c r="F64" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G64" s="38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H64" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="I64" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="I64" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J64" s="40"/>
-      <c r="K64" s="40"/>
-      <c r="L64" s="40"/>
-      <c r="M64" s="40"/>
-      <c r="N64" s="40"/>
-      <c r="O64" s="40"/>
-      <c r="P64" s="40"/>
-      <c r="Q64" s="40"/>
-      <c r="R64" s="40"/>
-      <c r="S64" s="40"/>
-      <c r="T64" s="40"/>
-      <c r="U64" s="40"/>
-      <c r="V64" s="40"/>
-      <c r="W64" s="40"/>
-      <c r="X64" s="40"/>
-      <c r="Y64" s="40"/>
-      <c r="Z64" s="40"/>
+      <c r="K64" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L64" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M64" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N64" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O64" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P64" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q64" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R64" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S64" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T64" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U64" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V64" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W64" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X64" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y64" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z64" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA64" s="41"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -4401,11 +6373,11 @@
       </c>
       <c r="E65" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F65" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G65" s="38" t="s">
         <v>20</v>
@@ -4413,24 +6385,58 @@
       <c r="H65" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I65" s="40"/>
+      <c r="I65" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J65" s="40"/>
-      <c r="K65" s="40"/>
-      <c r="L65" s="40"/>
-      <c r="M65" s="40"/>
-      <c r="N65" s="40"/>
-      <c r="O65" s="40"/>
-      <c r="P65" s="40"/>
-      <c r="Q65" s="40"/>
-      <c r="R65" s="40"/>
-      <c r="S65" s="40"/>
-      <c r="T65" s="40"/>
-      <c r="U65" s="40"/>
-      <c r="V65" s="40"/>
-      <c r="W65" s="40"/>
-      <c r="X65" s="40"/>
-      <c r="Y65" s="40"/>
-      <c r="Z65" s="40"/>
+      <c r="K65" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L65" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M65" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N65" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O65" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P65" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q65" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R65" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S65" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T65" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U65" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V65" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W65" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X65" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y65" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z65" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA65" s="41"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
@@ -4449,11 +6455,11 @@
       </c>
       <c r="E66" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F66" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G66" s="38" t="s">
         <v>20</v>
@@ -4461,24 +6467,58 @@
       <c r="H66" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I66" s="40"/>
+      <c r="I66" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J66" s="40"/>
-      <c r="K66" s="40"/>
-      <c r="L66" s="40"/>
-      <c r="M66" s="40"/>
-      <c r="N66" s="40"/>
-      <c r="O66" s="40"/>
-      <c r="P66" s="40"/>
-      <c r="Q66" s="40"/>
-      <c r="R66" s="40"/>
-      <c r="S66" s="40"/>
-      <c r="T66" s="40"/>
-      <c r="U66" s="40"/>
-      <c r="V66" s="40"/>
-      <c r="W66" s="40"/>
-      <c r="X66" s="40"/>
-      <c r="Y66" s="40"/>
-      <c r="Z66" s="40"/>
+      <c r="K66" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L66" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M66" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N66" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O66" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P66" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q66" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R66" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S66" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T66" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U66" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V66" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W66" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X66" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y66" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z66" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA66" s="41"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
@@ -4497,11 +6537,11 @@
       </c>
       <c r="E67" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F67" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G67" s="38" t="s">
         <v>20</v>
@@ -4509,24 +6549,58 @@
       <c r="H67" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I67" s="40"/>
+      <c r="I67" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J67" s="40"/>
-      <c r="K67" s="40"/>
-      <c r="L67" s="40"/>
-      <c r="M67" s="40"/>
-      <c r="N67" s="40"/>
-      <c r="O67" s="40"/>
-      <c r="P67" s="40"/>
-      <c r="Q67" s="40"/>
-      <c r="R67" s="40"/>
-      <c r="S67" s="40"/>
-      <c r="T67" s="40"/>
-      <c r="U67" s="40"/>
-      <c r="V67" s="40"/>
-      <c r="W67" s="40"/>
-      <c r="X67" s="40"/>
-      <c r="Y67" s="40"/>
-      <c r="Z67" s="40"/>
+      <c r="K67" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L67" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M67" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N67" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O67" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P67" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q67" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R67" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S67" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T67" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U67" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V67" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W67" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X67" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y67" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z67" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA67" s="41"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
@@ -4545,11 +6619,11 @@
       </c>
       <c r="E68" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F68" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G68" s="38" t="s">
         <v>20</v>
@@ -4557,24 +6631,58 @@
       <c r="H68" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I68" s="40"/>
+      <c r="I68" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J68" s="40"/>
-      <c r="K68" s="40"/>
-      <c r="L68" s="40"/>
-      <c r="M68" s="40"/>
-      <c r="N68" s="40"/>
-      <c r="O68" s="40"/>
-      <c r="P68" s="40"/>
-      <c r="Q68" s="40"/>
-      <c r="R68" s="40"/>
-      <c r="S68" s="40"/>
-      <c r="T68" s="40"/>
-      <c r="U68" s="40"/>
-      <c r="V68" s="40"/>
-      <c r="W68" s="40"/>
-      <c r="X68" s="40"/>
-      <c r="Y68" s="40"/>
-      <c r="Z68" s="40"/>
+      <c r="K68" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L68" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M68" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N68" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O68" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P68" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q68" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R68" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S68" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T68" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U68" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V68" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W68" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X68" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y68" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z68" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA68" s="41"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
@@ -4593,11 +6701,11 @@
       </c>
       <c r="E69" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F69" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G69" s="38" t="s">
         <v>20</v>
@@ -4605,24 +6713,58 @@
       <c r="H69" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I69" s="40"/>
+      <c r="I69" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J69" s="40"/>
-      <c r="K69" s="40"/>
-      <c r="L69" s="40"/>
-      <c r="M69" s="40"/>
-      <c r="N69" s="40"/>
-      <c r="O69" s="40"/>
-      <c r="P69" s="40"/>
-      <c r="Q69" s="40"/>
-      <c r="R69" s="40"/>
-      <c r="S69" s="40"/>
-      <c r="T69" s="40"/>
-      <c r="U69" s="40"/>
-      <c r="V69" s="40"/>
-      <c r="W69" s="40"/>
-      <c r="X69" s="40"/>
-      <c r="Y69" s="40"/>
-      <c r="Z69" s="40"/>
+      <c r="K69" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L69" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M69" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N69" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O69" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P69" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q69" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R69" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S69" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T69" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U69" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V69" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W69" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X69" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y69" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z69" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA69" s="41"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
@@ -4641,36 +6783,70 @@
       </c>
       <c r="E70" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F70" s="37">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G70" s="38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H70" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I70" s="40"/>
+      <c r="I70" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J70" s="40"/>
-      <c r="K70" s="40"/>
-      <c r="L70" s="40"/>
-      <c r="M70" s="40"/>
-      <c r="N70" s="40"/>
-      <c r="O70" s="40"/>
-      <c r="P70" s="40"/>
-      <c r="Q70" s="40"/>
-      <c r="R70" s="40"/>
-      <c r="S70" s="40"/>
-      <c r="T70" s="40"/>
-      <c r="U70" s="40"/>
-      <c r="V70" s="40"/>
-      <c r="W70" s="40"/>
-      <c r="X70" s="40"/>
-      <c r="Y70" s="40"/>
-      <c r="Z70" s="40"/>
+      <c r="K70" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L70" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M70" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N70" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O70" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P70" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q70" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="R70" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S70" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T70" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U70" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V70" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W70" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X70" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y70" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z70" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA70" s="41"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
@@ -4689,11 +6865,11 @@
       </c>
       <c r="E71" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F71" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G71" s="38" t="s">
         <v>20</v>
@@ -4701,24 +6877,58 @@
       <c r="H71" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I71" s="40"/>
+      <c r="I71" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J71" s="40"/>
-      <c r="K71" s="40"/>
-      <c r="L71" s="40"/>
-      <c r="M71" s="40"/>
-      <c r="N71" s="40"/>
-      <c r="O71" s="40"/>
-      <c r="P71" s="40"/>
-      <c r="Q71" s="40"/>
-      <c r="R71" s="40"/>
-      <c r="S71" s="40"/>
-      <c r="T71" s="40"/>
-      <c r="U71" s="40"/>
-      <c r="V71" s="40"/>
-      <c r="W71" s="40"/>
-      <c r="X71" s="40"/>
-      <c r="Y71" s="40"/>
-      <c r="Z71" s="40"/>
+      <c r="K71" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L71" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M71" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N71" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O71" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P71" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q71" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R71" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S71" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T71" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U71" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V71" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W71" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X71" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y71" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z71" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA71" s="41"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
@@ -4737,11 +6947,11 @@
       </c>
       <c r="E72" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F72" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G72" s="38" t="s">
         <v>20</v>
@@ -4749,24 +6959,58 @@
       <c r="H72" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I72" s="40"/>
+      <c r="I72" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J72" s="40"/>
-      <c r="K72" s="40"/>
-      <c r="L72" s="40"/>
-      <c r="M72" s="40"/>
-      <c r="N72" s="40"/>
-      <c r="O72" s="40"/>
-      <c r="P72" s="40"/>
-      <c r="Q72" s="40"/>
-      <c r="R72" s="40"/>
-      <c r="S72" s="40"/>
-      <c r="T72" s="40"/>
-      <c r="U72" s="40"/>
-      <c r="V72" s="40"/>
-      <c r="W72" s="40"/>
-      <c r="X72" s="40"/>
-      <c r="Y72" s="40"/>
-      <c r="Z72" s="40"/>
+      <c r="K72" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L72" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M72" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N72" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O72" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P72" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q72" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R72" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S72" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T72" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U72" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V72" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W72" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X72" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y72" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z72" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA72" s="41"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
@@ -4785,11 +7029,11 @@
       </c>
       <c r="E73" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F73" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G73" s="38" t="s">
         <v>20</v>
@@ -4797,24 +7041,58 @@
       <c r="H73" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I73" s="40"/>
+      <c r="I73" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J73" s="40"/>
-      <c r="K73" s="40"/>
-      <c r="L73" s="40"/>
-      <c r="M73" s="40"/>
-      <c r="N73" s="40"/>
-      <c r="O73" s="40"/>
-      <c r="P73" s="40"/>
-      <c r="Q73" s="40"/>
-      <c r="R73" s="40"/>
-      <c r="S73" s="40"/>
-      <c r="T73" s="40"/>
-      <c r="U73" s="40"/>
-      <c r="V73" s="40"/>
-      <c r="W73" s="40"/>
-      <c r="X73" s="40"/>
-      <c r="Y73" s="40"/>
-      <c r="Z73" s="40"/>
+      <c r="K73" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L73" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M73" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N73" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O73" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P73" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q73" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R73" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S73" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T73" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U73" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="V73" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W73" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X73" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y73" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z73" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA73" s="41"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
@@ -4833,36 +7111,70 @@
       </c>
       <c r="E74" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F74" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G74" s="38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H74" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="I74" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="I74" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="J74" s="40"/>
-      <c r="K74" s="40"/>
-      <c r="L74" s="40"/>
-      <c r="M74" s="40"/>
-      <c r="N74" s="40"/>
-      <c r="O74" s="40"/>
-      <c r="P74" s="40"/>
-      <c r="Q74" s="40"/>
-      <c r="R74" s="40"/>
-      <c r="S74" s="40"/>
-      <c r="T74" s="40"/>
-      <c r="U74" s="40"/>
-      <c r="V74" s="40"/>
-      <c r="W74" s="40"/>
-      <c r="X74" s="40"/>
-      <c r="Y74" s="40"/>
-      <c r="Z74" s="40"/>
+      <c r="K74" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L74" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M74" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N74" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O74" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P74" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q74" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R74" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S74" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T74" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U74" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V74" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W74" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X74" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y74" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z74" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA74" s="41"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
@@ -4881,36 +7193,70 @@
       </c>
       <c r="E75" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F75" s="37">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G75" s="38" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H75" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="I75" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="I75" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J75" s="40"/>
-      <c r="K75" s="40"/>
-      <c r="L75" s="40"/>
-      <c r="M75" s="40"/>
-      <c r="N75" s="40"/>
-      <c r="O75" s="40"/>
-      <c r="P75" s="40"/>
-      <c r="Q75" s="40"/>
-      <c r="R75" s="40"/>
-      <c r="S75" s="40"/>
-      <c r="T75" s="40"/>
-      <c r="U75" s="40"/>
-      <c r="V75" s="40"/>
-      <c r="W75" s="40"/>
-      <c r="X75" s="40"/>
-      <c r="Y75" s="40"/>
-      <c r="Z75" s="40"/>
+      <c r="K75" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L75" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M75" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N75" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O75" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P75" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q75" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R75" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S75" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T75" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U75" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V75" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W75" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X75" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y75" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z75" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA75" s="41"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
@@ -4929,11 +7275,11 @@
       </c>
       <c r="E76" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F76" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G76" s="38" t="s">
         <v>20</v>
@@ -4941,24 +7287,58 @@
       <c r="H76" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I76" s="40"/>
+      <c r="I76" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J76" s="40"/>
-      <c r="K76" s="40"/>
-      <c r="L76" s="40"/>
-      <c r="M76" s="40"/>
-      <c r="N76" s="40"/>
-      <c r="O76" s="40"/>
-      <c r="P76" s="40"/>
-      <c r="Q76" s="40"/>
-      <c r="R76" s="40"/>
-      <c r="S76" s="40"/>
-      <c r="T76" s="40"/>
-      <c r="U76" s="40"/>
-      <c r="V76" s="40"/>
-      <c r="W76" s="40"/>
-      <c r="X76" s="40"/>
-      <c r="Y76" s="40"/>
-      <c r="Z76" s="40"/>
+      <c r="K76" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L76" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M76" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N76" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O76" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="P76" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q76" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R76" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="S76" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T76" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U76" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V76" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="W76" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X76" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y76" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z76" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="AA76" s="41"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
@@ -4977,11 +7357,11 @@
       </c>
       <c r="E77" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F77" s="37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G77" s="38" t="s">
         <v>20</v>
@@ -4989,24 +7369,58 @@
       <c r="H77" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I77" s="40"/>
+      <c r="I77" s="39" t="s">
+        <v>21</v>
+      </c>
       <c r="J77" s="40"/>
-      <c r="K77" s="40"/>
-      <c r="L77" s="40"/>
-      <c r="M77" s="40"/>
-      <c r="N77" s="40"/>
-      <c r="O77" s="40"/>
-      <c r="P77" s="40"/>
-      <c r="Q77" s="40"/>
-      <c r="R77" s="40"/>
-      <c r="S77" s="40"/>
-      <c r="T77" s="40"/>
-      <c r="U77" s="40"/>
-      <c r="V77" s="40"/>
-      <c r="W77" s="40"/>
-      <c r="X77" s="40"/>
-      <c r="Y77" s="40"/>
-      <c r="Z77" s="40"/>
+      <c r="K77" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L77" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="M77" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N77" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="O77" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="P77" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q77" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R77" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S77" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="T77" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U77" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="V77" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W77" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="X77" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y77" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z77" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="AA77" s="41"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">

--- a/attendance-files/SDM/SDM-M (EFGH) Attendance Sheet.xlsx
+++ b/attendance-files/SDM/SDM-M (EFGH) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="162">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="F7" s="29">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>20</v>
@@ -1660,27 +1660,13 @@
       <c r="S7" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="T7" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="U7" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="V7" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="W7" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="X7" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y7" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z7" s="31" t="s">
-        <v>21</v>
-      </c>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="32"/>
       <c r="AA7" s="33"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -1699,11 +1685,11 @@
       </c>
       <c r="E8" s="28">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F8" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G8" s="38" t="s">
         <v>20</v>
@@ -1742,27 +1728,13 @@
       <c r="S8" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="T8" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="U8" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="V8" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W8" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X8" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y8" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z8" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
       <c r="AA8" s="41"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -1781,11 +1753,11 @@
       </c>
       <c r="E9" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G9" s="38" t="s">
         <v>20</v>
@@ -1824,27 +1796,13 @@
       <c r="S9" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T9" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U9" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="V9" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W9" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X9" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y9" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z9" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
       <c r="AA9" s="41"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -1863,11 +1821,11 @@
       </c>
       <c r="E10" s="28">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G10" s="38" t="s">
         <v>20</v>
@@ -1906,27 +1864,13 @@
       <c r="S10" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T10" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U10" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V10" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W10" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X10" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y10" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z10" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="40"/>
       <c r="AA10" s="41"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -1945,11 +1889,11 @@
       </c>
       <c r="E11" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11" s="37">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G11" s="38" t="s">
         <v>21</v>
@@ -1988,27 +1932,13 @@
       <c r="S11" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T11" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U11" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V11" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W11" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="X11" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y11" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z11" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="40"/>
       <c r="AA11" s="41"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -2027,11 +1957,11 @@
       </c>
       <c r="E12" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F12" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G12" s="38" t="s">
         <v>20</v>
@@ -2070,27 +2000,13 @@
       <c r="S12" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T12" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U12" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V12" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W12" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="X12" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y12" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z12" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
       <c r="AA12" s="41"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -2109,11 +2025,11 @@
       </c>
       <c r="E13" s="28">
         <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F13" s="37">
+        <f t="shared" si="2"/>
         <v>7</v>
-      </c>
-      <c r="F13" s="37">
-        <f t="shared" si="2"/>
-        <v>12</v>
       </c>
       <c r="G13" s="38" t="s">
         <v>21</v>
@@ -2152,27 +2068,13 @@
       <c r="S13" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T13" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U13" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V13" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W13" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X13" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y13" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z13" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
       <c r="AA13" s="41"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -2191,11 +2093,11 @@
       </c>
       <c r="E14" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G14" s="38" t="s">
         <v>20</v>
@@ -2234,27 +2136,13 @@
       <c r="S14" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T14" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U14" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V14" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W14" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X14" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y14" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z14" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
       <c r="AA14" s="41"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
@@ -2277,7 +2165,7 @@
       </c>
       <c r="F15" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G15" s="38" t="s">
         <v>20</v>
@@ -2316,27 +2204,13 @@
       <c r="S15" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T15" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U15" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V15" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W15" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X15" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y15" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z15" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="40"/>
+      <c r="Z15" s="40"/>
       <c r="AA15" s="41"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -2355,11 +2229,11 @@
       </c>
       <c r="E16" s="28">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F16" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G16" s="38" t="s">
         <v>21</v>
@@ -2398,27 +2272,13 @@
       <c r="S16" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="T16" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="U16" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V16" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W16" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X16" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y16" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z16" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="40"/>
       <c r="AA16" s="41"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
@@ -2437,11 +2297,11 @@
       </c>
       <c r="E17" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G17" s="38" t="s">
         <v>20</v>
@@ -2480,27 +2340,13 @@
       <c r="S17" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T17" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U17" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V17" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W17" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X17" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y17" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z17" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
       <c r="AA17" s="41"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
@@ -2519,11 +2365,11 @@
       </c>
       <c r="E18" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G18" s="38" t="s">
         <v>20</v>
@@ -2562,27 +2408,13 @@
       <c r="S18" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T18" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U18" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V18" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W18" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="X18" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y18" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z18" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="40"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="40"/>
       <c r="AA18" s="41"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
@@ -2601,11 +2433,11 @@
       </c>
       <c r="E19" s="28">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F19" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G19" s="38" t="s">
         <v>21</v>
@@ -2644,27 +2476,13 @@
       <c r="S19" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T19" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="U19" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V19" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W19" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X19" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y19" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z19" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="40"/>
       <c r="AA19" s="41"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
@@ -2683,11 +2501,11 @@
       </c>
       <c r="E20" s="28">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F20" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G20" s="38" t="s">
         <v>21</v>
@@ -2726,27 +2544,13 @@
       <c r="S20" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T20" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U20" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V20" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W20" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X20" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y20" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z20" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40"/>
+      <c r="X20" s="40"/>
+      <c r="Y20" s="40"/>
+      <c r="Z20" s="40"/>
       <c r="AA20" s="41"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -2765,11 +2569,11 @@
       </c>
       <c r="E21" s="28">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F21" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G21" s="38" t="s">
         <v>21</v>
@@ -2808,27 +2612,13 @@
       <c r="S21" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T21" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U21" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V21" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W21" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X21" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y21" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z21" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="40"/>
       <c r="AA21" s="41"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -2847,11 +2637,11 @@
       </c>
       <c r="E22" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G22" s="38" t="s">
         <v>21</v>
@@ -2890,27 +2680,13 @@
       <c r="S22" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="T22" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U22" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V22" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W22" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X22" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y22" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z22" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="40"/>
       <c r="AA22" s="41"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -2929,11 +2705,11 @@
       </c>
       <c r="E23" s="28">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F23" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G23" s="38" t="s">
         <v>21</v>
@@ -2972,27 +2748,13 @@
       <c r="S23" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T23" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="U23" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="V23" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W23" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="X23" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y23" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z23" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="40"/>
       <c r="AA23" s="41"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -3011,11 +2773,11 @@
       </c>
       <c r="E24" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G24" s="38" t="s">
         <v>21</v>
@@ -3054,27 +2816,13 @@
       <c r="S24" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="T24" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U24" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V24" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W24" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X24" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y24" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z24" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="40"/>
       <c r="AA24" s="41"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -3093,11 +2841,11 @@
       </c>
       <c r="E25" s="28">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F25" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G25" s="38" t="s">
         <v>21</v>
@@ -3136,27 +2884,13 @@
       <c r="S25" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="T25" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U25" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V25" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W25" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X25" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y25" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z25" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T25" s="40"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="40"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="40"/>
       <c r="AA25" s="41"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -3175,11 +2909,11 @@
       </c>
       <c r="E26" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F26" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G26" s="38" t="s">
         <v>20</v>
@@ -3218,27 +2952,13 @@
       <c r="S26" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T26" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U26" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="V26" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W26" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X26" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y26" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z26" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T26" s="40"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="40"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="40"/>
+      <c r="Z26" s="40"/>
       <c r="AA26" s="41"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -3261,7 +2981,7 @@
       </c>
       <c r="F27" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G27" s="38" t="s">
         <v>20</v>
@@ -3300,27 +3020,13 @@
       <c r="S27" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T27" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U27" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V27" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W27" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X27" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y27" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z27" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="40"/>
+      <c r="X27" s="40"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="40"/>
       <c r="AA27" s="41"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -3343,7 +3049,7 @@
       </c>
       <c r="F28" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G28" s="38" t="s">
         <v>20</v>
@@ -3382,27 +3088,13 @@
       <c r="S28" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T28" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U28" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V28" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W28" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X28" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y28" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z28" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="40"/>
+      <c r="X28" s="40"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="40"/>
       <c r="AA28" s="41"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -3425,7 +3117,7 @@
       </c>
       <c r="F29" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G29" s="38" t="s">
         <v>20</v>
@@ -3464,27 +3156,13 @@
       <c r="S29" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T29" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U29" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V29" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W29" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X29" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y29" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z29" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T29" s="40"/>
+      <c r="U29" s="40"/>
+      <c r="V29" s="40"/>
+      <c r="W29" s="40"/>
+      <c r="X29" s="40"/>
+      <c r="Y29" s="40"/>
+      <c r="Z29" s="40"/>
       <c r="AA29" s="41"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -3507,7 +3185,7 @@
       </c>
       <c r="F30" s="37">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G30" s="38" t="s">
         <v>21</v>
@@ -3546,27 +3224,13 @@
       <c r="S30" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T30" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U30" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V30" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W30" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X30" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y30" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z30" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T30" s="40"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="40"/>
+      <c r="W30" s="40"/>
+      <c r="X30" s="40"/>
+      <c r="Y30" s="40"/>
+      <c r="Z30" s="40"/>
       <c r="AA30" s="41"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -3585,11 +3249,11 @@
       </c>
       <c r="E31" s="28">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F31" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G31" s="38" t="s">
         <v>20</v>
@@ -3628,27 +3292,13 @@
       <c r="S31" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T31" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U31" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V31" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W31" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="X31" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y31" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z31" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="T31" s="40"/>
+      <c r="U31" s="40"/>
+      <c r="V31" s="40"/>
+      <c r="W31" s="40"/>
+      <c r="X31" s="40"/>
+      <c r="Y31" s="40"/>
+      <c r="Z31" s="40"/>
       <c r="AA31" s="41"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -3667,11 +3317,11 @@
       </c>
       <c r="E32" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F32" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G32" s="38" t="s">
         <v>20</v>
@@ -3710,27 +3360,13 @@
       <c r="S32" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T32" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U32" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V32" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W32" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X32" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y32" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z32" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T32" s="40"/>
+      <c r="U32" s="40"/>
+      <c r="V32" s="40"/>
+      <c r="W32" s="40"/>
+      <c r="X32" s="40"/>
+      <c r="Y32" s="40"/>
+      <c r="Z32" s="40"/>
       <c r="AA32" s="41"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -3753,7 +3389,7 @@
       </c>
       <c r="F33" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G33" s="38" t="s">
         <v>20</v>
@@ -3792,27 +3428,13 @@
       <c r="S33" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T33" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U33" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V33" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W33" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X33" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y33" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z33" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T33" s="40"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="40"/>
+      <c r="W33" s="40"/>
+      <c r="X33" s="40"/>
+      <c r="Y33" s="40"/>
+      <c r="Z33" s="40"/>
       <c r="AA33" s="41"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -3831,11 +3453,11 @@
       </c>
       <c r="E34" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F34" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G34" s="38" t="s">
         <v>20</v>
@@ -3874,27 +3496,13 @@
       <c r="S34" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T34" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U34" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="V34" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W34" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X34" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y34" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z34" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T34" s="40"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="40"/>
+      <c r="W34" s="40"/>
+      <c r="X34" s="40"/>
+      <c r="Y34" s="40"/>
+      <c r="Z34" s="40"/>
       <c r="AA34" s="41"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -3913,11 +3521,11 @@
       </c>
       <c r="E35" s="28">
         <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F35" s="37">
+        <f t="shared" si="2"/>
         <v>7</v>
-      </c>
-      <c r="F35" s="37">
-        <f t="shared" si="2"/>
-        <v>12</v>
       </c>
       <c r="G35" s="38" t="s">
         <v>20</v>
@@ -3956,27 +3564,13 @@
       <c r="S35" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T35" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="U35" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V35" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W35" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X35" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y35" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z35" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T35" s="40"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="40"/>
+      <c r="W35" s="40"/>
+      <c r="X35" s="40"/>
+      <c r="Y35" s="40"/>
+      <c r="Z35" s="40"/>
       <c r="AA35" s="41"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -3995,11 +3589,11 @@
       </c>
       <c r="E36" s="28">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F36" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G36" s="38" t="s">
         <v>20</v>
@@ -4038,27 +3632,13 @@
       <c r="S36" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T36" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U36" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="V36" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W36" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X36" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y36" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z36" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T36" s="40"/>
+      <c r="U36" s="40"/>
+      <c r="V36" s="40"/>
+      <c r="W36" s="40"/>
+      <c r="X36" s="40"/>
+      <c r="Y36" s="40"/>
+      <c r="Z36" s="40"/>
       <c r="AA36" s="41"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -4077,11 +3657,11 @@
       </c>
       <c r="E37" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F37" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G37" s="38" t="s">
         <v>20</v>
@@ -4120,27 +3700,13 @@
       <c r="S37" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T37" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U37" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V37" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W37" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X37" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y37" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z37" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T37" s="40"/>
+      <c r="U37" s="40"/>
+      <c r="V37" s="40"/>
+      <c r="W37" s="40"/>
+      <c r="X37" s="40"/>
+      <c r="Y37" s="40"/>
+      <c r="Z37" s="40"/>
       <c r="AA37" s="41"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
@@ -4163,7 +3729,7 @@
       </c>
       <c r="F38" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G38" s="38" t="s">
         <v>20</v>
@@ -4202,27 +3768,13 @@
       <c r="S38" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="T38" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U38" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V38" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W38" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X38" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y38" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z38" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T38" s="40"/>
+      <c r="U38" s="40"/>
+      <c r="V38" s="40"/>
+      <c r="W38" s="40"/>
+      <c r="X38" s="40"/>
+      <c r="Y38" s="40"/>
+      <c r="Z38" s="40"/>
       <c r="AA38" s="41"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -4241,11 +3793,11 @@
       </c>
       <c r="E39" s="28">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F39" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G39" s="38" t="s">
         <v>21</v>
@@ -4284,27 +3836,13 @@
       <c r="S39" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="T39" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="U39" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V39" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W39" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X39" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y39" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z39" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="T39" s="40"/>
+      <c r="U39" s="40"/>
+      <c r="V39" s="40"/>
+      <c r="W39" s="40"/>
+      <c r="X39" s="40"/>
+      <c r="Y39" s="40"/>
+      <c r="Z39" s="40"/>
       <c r="AA39" s="41"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -4323,11 +3861,11 @@
       </c>
       <c r="E40" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F40" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G40" s="38" t="s">
         <v>20</v>
@@ -4366,27 +3904,13 @@
       <c r="S40" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T40" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U40" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V40" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W40" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X40" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y40" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z40" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T40" s="40"/>
+      <c r="U40" s="40"/>
+      <c r="V40" s="40"/>
+      <c r="W40" s="40"/>
+      <c r="X40" s="40"/>
+      <c r="Y40" s="40"/>
+      <c r="Z40" s="40"/>
       <c r="AA40" s="41"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -4405,11 +3929,11 @@
       </c>
       <c r="E41" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F41" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G41" s="38" t="s">
         <v>21</v>
@@ -4448,27 +3972,13 @@
       <c r="S41" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T41" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U41" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V41" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W41" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X41" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y41" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z41" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T41" s="40"/>
+      <c r="U41" s="40"/>
+      <c r="V41" s="40"/>
+      <c r="W41" s="40"/>
+      <c r="X41" s="40"/>
+      <c r="Y41" s="40"/>
+      <c r="Z41" s="40"/>
       <c r="AA41" s="41"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -4487,11 +3997,11 @@
       </c>
       <c r="E42" s="28">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F42" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G42" s="38" t="s">
         <v>20</v>
@@ -4530,27 +4040,13 @@
       <c r="S42" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T42" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U42" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V42" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W42" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X42" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y42" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z42" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T42" s="40"/>
+      <c r="U42" s="40"/>
+      <c r="V42" s="40"/>
+      <c r="W42" s="40"/>
+      <c r="X42" s="40"/>
+      <c r="Y42" s="40"/>
+      <c r="Z42" s="40"/>
       <c r="AA42" s="41"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -4569,11 +4065,11 @@
       </c>
       <c r="E43" s="28">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F43" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G43" s="38" t="s">
         <v>20</v>
@@ -4612,27 +4108,13 @@
       <c r="S43" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T43" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U43" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V43" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W43" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X43" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y43" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z43" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T43" s="40"/>
+      <c r="U43" s="40"/>
+      <c r="V43" s="40"/>
+      <c r="W43" s="40"/>
+      <c r="X43" s="40"/>
+      <c r="Y43" s="40"/>
+      <c r="Z43" s="40"/>
       <c r="AA43" s="41"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -4651,11 +4133,11 @@
       </c>
       <c r="E44" s="28">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F44" s="37">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G44" s="38" t="s">
         <v>20</v>
@@ -4694,27 +4176,13 @@
       <c r="S44" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T44" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U44" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V44" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W44" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="X44" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y44" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z44" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T44" s="40"/>
+      <c r="U44" s="40"/>
+      <c r="V44" s="40"/>
+      <c r="W44" s="40"/>
+      <c r="X44" s="40"/>
+      <c r="Y44" s="40"/>
+      <c r="Z44" s="40"/>
       <c r="AA44" s="41"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -4733,11 +4201,11 @@
       </c>
       <c r="E45" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F45" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G45" s="38" t="s">
         <v>20</v>
@@ -4776,27 +4244,13 @@
       <c r="S45" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T45" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U45" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V45" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W45" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X45" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y45" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z45" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="T45" s="40"/>
+      <c r="U45" s="40"/>
+      <c r="V45" s="40"/>
+      <c r="W45" s="40"/>
+      <c r="X45" s="40"/>
+      <c r="Y45" s="40"/>
+      <c r="Z45" s="40"/>
       <c r="AA45" s="41"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -4815,11 +4269,11 @@
       </c>
       <c r="E46" s="28">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F46" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G46" s="38" t="s">
         <v>20</v>
@@ -4858,27 +4312,13 @@
       <c r="S46" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="T46" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U46" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V46" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W46" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X46" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y46" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z46" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T46" s="40"/>
+      <c r="U46" s="40"/>
+      <c r="V46" s="40"/>
+      <c r="W46" s="40"/>
+      <c r="X46" s="40"/>
+      <c r="Y46" s="40"/>
+      <c r="Z46" s="40"/>
       <c r="AA46" s="41"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -4901,7 +4341,7 @@
       </c>
       <c r="F47" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G47" s="38" t="s">
         <v>21</v>
@@ -4940,27 +4380,13 @@
       <c r="S47" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T47" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U47" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V47" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W47" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X47" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y47" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z47" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T47" s="40"/>
+      <c r="U47" s="40"/>
+      <c r="V47" s="40"/>
+      <c r="W47" s="40"/>
+      <c r="X47" s="40"/>
+      <c r="Y47" s="40"/>
+      <c r="Z47" s="40"/>
       <c r="AA47" s="41"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -4983,7 +4409,7 @@
       </c>
       <c r="F48" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G48" s="38" t="s">
         <v>20</v>
@@ -5022,27 +4448,13 @@
       <c r="S48" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="T48" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U48" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V48" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W48" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X48" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y48" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z48" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T48" s="40"/>
+      <c r="U48" s="40"/>
+      <c r="V48" s="40"/>
+      <c r="W48" s="40"/>
+      <c r="X48" s="40"/>
+      <c r="Y48" s="40"/>
+      <c r="Z48" s="40"/>
       <c r="AA48" s="41"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
@@ -5061,11 +4473,11 @@
       </c>
       <c r="E49" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F49" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G49" s="38" t="s">
         <v>20</v>
@@ -5104,27 +4516,13 @@
       <c r="S49" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T49" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U49" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V49" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W49" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X49" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y49" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z49" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T49" s="40"/>
+      <c r="U49" s="40"/>
+      <c r="V49" s="40"/>
+      <c r="W49" s="40"/>
+      <c r="X49" s="40"/>
+      <c r="Y49" s="40"/>
+      <c r="Z49" s="40"/>
       <c r="AA49" s="41"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -5143,11 +4541,11 @@
       </c>
       <c r="E50" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F50" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G50" s="38" t="s">
         <v>20</v>
@@ -5186,27 +4584,13 @@
       <c r="S50" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T50" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U50" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V50" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W50" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X50" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y50" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z50" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="T50" s="40"/>
+      <c r="U50" s="40"/>
+      <c r="V50" s="40"/>
+      <c r="W50" s="40"/>
+      <c r="X50" s="40"/>
+      <c r="Y50" s="40"/>
+      <c r="Z50" s="40"/>
       <c r="AA50" s="41"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
@@ -5229,7 +4613,7 @@
       </c>
       <c r="F51" s="37">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G51" s="38" t="s">
         <v>21</v>
@@ -5268,27 +4652,13 @@
       <c r="S51" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T51" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U51" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V51" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W51" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X51" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y51" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z51" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T51" s="40"/>
+      <c r="U51" s="40"/>
+      <c r="V51" s="40"/>
+      <c r="W51" s="40"/>
+      <c r="X51" s="40"/>
+      <c r="Y51" s="40"/>
+      <c r="Z51" s="40"/>
       <c r="AA51" s="41"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
@@ -5311,7 +4681,7 @@
       </c>
       <c r="F52" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G52" s="38" t="s">
         <v>20</v>
@@ -5350,27 +4720,13 @@
       <c r="S52" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T52" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U52" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V52" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W52" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X52" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y52" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z52" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T52" s="40"/>
+      <c r="U52" s="40"/>
+      <c r="V52" s="40"/>
+      <c r="W52" s="40"/>
+      <c r="X52" s="40"/>
+      <c r="Y52" s="40"/>
+      <c r="Z52" s="40"/>
       <c r="AA52" s="41"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
@@ -5389,11 +4745,11 @@
       </c>
       <c r="E53" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F53" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G53" s="38" t="s">
         <v>21</v>
@@ -5432,27 +4788,13 @@
       <c r="S53" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="T53" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U53" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V53" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W53" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X53" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y53" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z53" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="T53" s="40"/>
+      <c r="U53" s="40"/>
+      <c r="V53" s="40"/>
+      <c r="W53" s="40"/>
+      <c r="X53" s="40"/>
+      <c r="Y53" s="40"/>
+      <c r="Z53" s="40"/>
       <c r="AA53" s="41"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -5471,11 +4813,11 @@
       </c>
       <c r="E54" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F54" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G54" s="38" t="s">
         <v>20</v>
@@ -5514,27 +4856,13 @@
       <c r="S54" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T54" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U54" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V54" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W54" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X54" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y54" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z54" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="T54" s="40"/>
+      <c r="U54" s="40"/>
+      <c r="V54" s="40"/>
+      <c r="W54" s="40"/>
+      <c r="X54" s="40"/>
+      <c r="Y54" s="40"/>
+      <c r="Z54" s="40"/>
       <c r="AA54" s="41"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -5553,11 +4881,11 @@
       </c>
       <c r="E55" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55" s="37">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G55" s="38" t="s">
         <v>21</v>
@@ -5596,27 +4924,13 @@
       <c r="S55" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T55" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U55" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V55" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W55" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X55" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y55" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z55" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T55" s="40"/>
+      <c r="U55" s="40"/>
+      <c r="V55" s="40"/>
+      <c r="W55" s="40"/>
+      <c r="X55" s="40"/>
+      <c r="Y55" s="40"/>
+      <c r="Z55" s="40"/>
       <c r="AA55" s="41"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
@@ -5635,11 +4949,11 @@
       </c>
       <c r="E56" s="28">
         <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F56" s="37">
+        <f t="shared" si="2"/>
         <v>7</v>
-      </c>
-      <c r="F56" s="37">
-        <f t="shared" si="2"/>
-        <v>12</v>
       </c>
       <c r="G56" s="38" t="s">
         <v>20</v>
@@ -5678,27 +4992,13 @@
       <c r="S56" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="T56" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U56" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="V56" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W56" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X56" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y56" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z56" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T56" s="40"/>
+      <c r="U56" s="40"/>
+      <c r="V56" s="40"/>
+      <c r="W56" s="40"/>
+      <c r="X56" s="40"/>
+      <c r="Y56" s="40"/>
+      <c r="Z56" s="40"/>
       <c r="AA56" s="41"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -5717,11 +5017,11 @@
       </c>
       <c r="E57" s="28">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F57" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G57" s="38" t="s">
         <v>21</v>
@@ -5760,27 +5060,13 @@
       <c r="S57" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T57" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U57" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V57" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W57" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X57" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y57" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z57" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="T57" s="40"/>
+      <c r="U57" s="40"/>
+      <c r="V57" s="40"/>
+      <c r="W57" s="40"/>
+      <c r="X57" s="40"/>
+      <c r="Y57" s="40"/>
+      <c r="Z57" s="40"/>
       <c r="AA57" s="41"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
@@ -5799,11 +5085,11 @@
       </c>
       <c r="E58" s="28">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F58" s="37">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G58" s="38" t="s">
         <v>20</v>
@@ -5842,27 +5128,13 @@
       <c r="S58" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="T58" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U58" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="V58" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W58" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X58" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y58" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z58" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T58" s="40"/>
+      <c r="U58" s="40"/>
+      <c r="V58" s="40"/>
+      <c r="W58" s="40"/>
+      <c r="X58" s="40"/>
+      <c r="Y58" s="40"/>
+      <c r="Z58" s="40"/>
       <c r="AA58" s="41"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
@@ -5885,7 +5157,7 @@
       </c>
       <c r="F59" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G59" s="38" t="s">
         <v>20</v>
@@ -5924,27 +5196,13 @@
       <c r="S59" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T59" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U59" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V59" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W59" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X59" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y59" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z59" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T59" s="40"/>
+      <c r="U59" s="40"/>
+      <c r="V59" s="40"/>
+      <c r="W59" s="40"/>
+      <c r="X59" s="40"/>
+      <c r="Y59" s="40"/>
+      <c r="Z59" s="40"/>
       <c r="AA59" s="41"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
@@ -5963,11 +5221,11 @@
       </c>
       <c r="E60" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F60" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G60" s="38" t="s">
         <v>20</v>
@@ -6006,27 +5264,13 @@
       <c r="S60" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T60" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U60" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V60" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W60" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="X60" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y60" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z60" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T60" s="40"/>
+      <c r="U60" s="40"/>
+      <c r="V60" s="40"/>
+      <c r="W60" s="40"/>
+      <c r="X60" s="40"/>
+      <c r="Y60" s="40"/>
+      <c r="Z60" s="40"/>
       <c r="AA60" s="41"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
@@ -6045,7 +5289,7 @@
       </c>
       <c r="E61" s="28">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F61" s="37">
         <f t="shared" si="2"/>
@@ -6088,27 +5332,13 @@
       <c r="S61" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="T61" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="U61" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="V61" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W61" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="X61" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y61" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z61" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="T61" s="40"/>
+      <c r="U61" s="40"/>
+      <c r="V61" s="40"/>
+      <c r="W61" s="40"/>
+      <c r="X61" s="40"/>
+      <c r="Y61" s="40"/>
+      <c r="Z61" s="40"/>
       <c r="AA61" s="41"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
@@ -6127,11 +5357,11 @@
       </c>
       <c r="E62" s="28">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F62" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G62" s="38" t="s">
         <v>20</v>
@@ -6170,27 +5400,13 @@
       <c r="S62" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T62" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U62" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V62" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W62" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X62" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y62" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z62" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T62" s="40"/>
+      <c r="U62" s="40"/>
+      <c r="V62" s="40"/>
+      <c r="W62" s="40"/>
+      <c r="X62" s="40"/>
+      <c r="Y62" s="40"/>
+      <c r="Z62" s="40"/>
       <c r="AA62" s="41"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
@@ -6213,7 +5429,7 @@
       </c>
       <c r="F63" s="37">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G63" s="38" t="s">
         <v>20</v>
@@ -6252,27 +5468,13 @@
       <c r="S63" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T63" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U63" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V63" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W63" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X63" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y63" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z63" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T63" s="40"/>
+      <c r="U63" s="40"/>
+      <c r="V63" s="40"/>
+      <c r="W63" s="40"/>
+      <c r="X63" s="40"/>
+      <c r="Y63" s="40"/>
+      <c r="Z63" s="40"/>
       <c r="AA63" s="41"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
@@ -6295,7 +5497,7 @@
       </c>
       <c r="F64" s="37">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G64" s="38" t="s">
         <v>21</v>
@@ -6334,27 +5536,13 @@
       <c r="S64" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T64" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U64" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V64" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W64" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X64" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y64" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z64" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T64" s="40"/>
+      <c r="U64" s="40"/>
+      <c r="V64" s="40"/>
+      <c r="W64" s="40"/>
+      <c r="X64" s="40"/>
+      <c r="Y64" s="40"/>
+      <c r="Z64" s="40"/>
       <c r="AA64" s="41"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -6377,7 +5565,7 @@
       </c>
       <c r="F65" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G65" s="38" t="s">
         <v>20</v>
@@ -6416,27 +5604,13 @@
       <c r="S65" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T65" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U65" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V65" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W65" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X65" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y65" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z65" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T65" s="40"/>
+      <c r="U65" s="40"/>
+      <c r="V65" s="40"/>
+      <c r="W65" s="40"/>
+      <c r="X65" s="40"/>
+      <c r="Y65" s="40"/>
+      <c r="Z65" s="40"/>
       <c r="AA65" s="41"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
@@ -6459,7 +5633,7 @@
       </c>
       <c r="F66" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G66" s="38" t="s">
         <v>20</v>
@@ -6498,27 +5672,13 @@
       <c r="S66" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T66" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U66" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V66" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W66" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X66" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y66" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z66" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T66" s="40"/>
+      <c r="U66" s="40"/>
+      <c r="V66" s="40"/>
+      <c r="W66" s="40"/>
+      <c r="X66" s="40"/>
+      <c r="Y66" s="40"/>
+      <c r="Z66" s="40"/>
       <c r="AA66" s="41"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
@@ -6537,11 +5697,11 @@
       </c>
       <c r="E67" s="28">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F67" s="37">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G67" s="38" t="s">
         <v>20</v>
@@ -6580,27 +5740,13 @@
       <c r="S67" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T67" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U67" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V67" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W67" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X67" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y67" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z67" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="T67" s="40"/>
+      <c r="U67" s="40"/>
+      <c r="V67" s="40"/>
+      <c r="W67" s="40"/>
+      <c r="X67" s="40"/>
+      <c r="Y67" s="40"/>
+      <c r="Z67" s="40"/>
       <c r="AA67" s="41"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
@@ -6619,11 +5765,11 @@
       </c>
       <c r="E68" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F68" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G68" s="38" t="s">
         <v>20</v>
@@ -6662,27 +5808,13 @@
       <c r="S68" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T68" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U68" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V68" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W68" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X68" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y68" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z68" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T68" s="40"/>
+      <c r="U68" s="40"/>
+      <c r="V68" s="40"/>
+      <c r="W68" s="40"/>
+      <c r="X68" s="40"/>
+      <c r="Y68" s="40"/>
+      <c r="Z68" s="40"/>
       <c r="AA68" s="41"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
@@ -6705,7 +5837,7 @@
       </c>
       <c r="F69" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G69" s="38" t="s">
         <v>20</v>
@@ -6744,27 +5876,13 @@
       <c r="S69" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T69" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U69" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V69" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W69" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X69" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y69" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z69" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T69" s="40"/>
+      <c r="U69" s="40"/>
+      <c r="V69" s="40"/>
+      <c r="W69" s="40"/>
+      <c r="X69" s="40"/>
+      <c r="Y69" s="40"/>
+      <c r="Z69" s="40"/>
       <c r="AA69" s="41"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
@@ -6783,11 +5901,11 @@
       </c>
       <c r="E70" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F70" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G70" s="38" t="s">
         <v>21</v>
@@ -6826,27 +5944,13 @@
       <c r="S70" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T70" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U70" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V70" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W70" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X70" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y70" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z70" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T70" s="40"/>
+      <c r="U70" s="40"/>
+      <c r="V70" s="40"/>
+      <c r="W70" s="40"/>
+      <c r="X70" s="40"/>
+      <c r="Y70" s="40"/>
+      <c r="Z70" s="40"/>
       <c r="AA70" s="41"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
@@ -6869,7 +5973,7 @@
       </c>
       <c r="F71" s="37">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G71" s="38" t="s">
         <v>20</v>
@@ -6908,27 +6012,13 @@
       <c r="S71" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T71" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U71" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V71" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W71" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X71" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y71" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z71" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T71" s="40"/>
+      <c r="U71" s="40"/>
+      <c r="V71" s="40"/>
+      <c r="W71" s="40"/>
+      <c r="X71" s="40"/>
+      <c r="Y71" s="40"/>
+      <c r="Z71" s="40"/>
       <c r="AA71" s="41"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
@@ -6947,11 +6037,11 @@
       </c>
       <c r="E72" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F72" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G72" s="38" t="s">
         <v>20</v>
@@ -6990,27 +6080,13 @@
       <c r="S72" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T72" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U72" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V72" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W72" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X72" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y72" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z72" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T72" s="40"/>
+      <c r="U72" s="40"/>
+      <c r="V72" s="40"/>
+      <c r="W72" s="40"/>
+      <c r="X72" s="40"/>
+      <c r="Y72" s="40"/>
+      <c r="Z72" s="40"/>
       <c r="AA72" s="41"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
@@ -7029,11 +6105,11 @@
       </c>
       <c r="E73" s="28">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F73" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G73" s="38" t="s">
         <v>20</v>
@@ -7072,27 +6148,13 @@
       <c r="S73" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T73" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U73" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="V73" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W73" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X73" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y73" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z73" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T73" s="40"/>
+      <c r="U73" s="40"/>
+      <c r="V73" s="40"/>
+      <c r="W73" s="40"/>
+      <c r="X73" s="40"/>
+      <c r="Y73" s="40"/>
+      <c r="Z73" s="40"/>
       <c r="AA73" s="41"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
@@ -7111,11 +6173,11 @@
       </c>
       <c r="E74" s="28">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F74" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G74" s="38" t="s">
         <v>21</v>
@@ -7154,27 +6216,13 @@
       <c r="S74" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T74" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U74" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V74" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W74" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X74" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y74" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z74" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T74" s="40"/>
+      <c r="U74" s="40"/>
+      <c r="V74" s="40"/>
+      <c r="W74" s="40"/>
+      <c r="X74" s="40"/>
+      <c r="Y74" s="40"/>
+      <c r="Z74" s="40"/>
       <c r="AA74" s="41"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
@@ -7193,11 +6241,11 @@
       </c>
       <c r="E75" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F75" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G75" s="38" t="s">
         <v>21</v>
@@ -7236,27 +6284,13 @@
       <c r="S75" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T75" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U75" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V75" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W75" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X75" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y75" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z75" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T75" s="40"/>
+      <c r="U75" s="40"/>
+      <c r="V75" s="40"/>
+      <c r="W75" s="40"/>
+      <c r="X75" s="40"/>
+      <c r="Y75" s="40"/>
+      <c r="Z75" s="40"/>
       <c r="AA75" s="41"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
@@ -7279,7 +6313,7 @@
       </c>
       <c r="F76" s="37">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G76" s="38" t="s">
         <v>20</v>
@@ -7318,27 +6352,13 @@
       <c r="S76" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="T76" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U76" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V76" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="W76" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X76" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y76" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z76" s="39" t="s">
-        <v>21</v>
-      </c>
+      <c r="T76" s="40"/>
+      <c r="U76" s="40"/>
+      <c r="V76" s="40"/>
+      <c r="W76" s="40"/>
+      <c r="X76" s="40"/>
+      <c r="Y76" s="40"/>
+      <c r="Z76" s="40"/>
       <c r="AA76" s="41"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
@@ -7357,11 +6377,11 @@
       </c>
       <c r="E77" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F77" s="37">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G77" s="38" t="s">
         <v>20</v>
@@ -7400,27 +6420,13 @@
       <c r="S77" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T77" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="U77" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="V77" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W77" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="X77" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y77" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z77" s="39" t="s">
-        <v>20</v>
-      </c>
+      <c r="T77" s="40"/>
+      <c r="U77" s="40"/>
+      <c r="V77" s="40"/>
+      <c r="W77" s="40"/>
+      <c r="X77" s="40"/>
+      <c r="Y77" s="40"/>
+      <c r="Z77" s="40"/>
       <c r="AA77" s="41"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
